--- a/output/경기동로_W_겨울_배출량/경기동로_W_겨울_배출량_CO.xlsx
+++ b/output/경기동로_W_겨울_배출량/경기동로_W_겨울_배출량_CO.xlsx
@@ -438,28 +438,28 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>48.47793266960423</v>
+        <v>214.8751610220294</v>
       </c>
       <c r="C2">
-        <v>0.8791886784470914</v>
+        <v>3.896944412576297</v>
       </c>
       <c r="D2">
-        <v>8.367973591990147</v>
+        <v>37.09047754287525</v>
       </c>
       <c r="E2">
-        <v>4.924378045465589</v>
+        <v>21.8269729582799</v>
       </c>
       <c r="F2">
-        <v>2.907810536704712</v>
+        <v>12.88867373025872</v>
       </c>
       <c r="G2">
-        <v>34.76839953212878</v>
+        <v>154.1085817099762</v>
       </c>
       <c r="H2">
-        <v>0.600330780218381</v>
+        <v>2.660925620427419</v>
       </c>
       <c r="I2">
-        <v>100.9260138345589</v>
+        <v>447.3477369964232</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>48.58085821667343</v>
+        <v>215.331371554985</v>
       </c>
       <c r="C3">
-        <v>1.011066980214155</v>
+        <v>4.481486074462741</v>
       </c>
       <c r="D3">
-        <v>8.367973591990147</v>
+        <v>37.09047754287525</v>
       </c>
       <c r="E3">
-        <v>5.138481438746702</v>
+        <v>22.77597178255295</v>
       </c>
       <c r="F3">
-        <v>2.993334376019556</v>
+        <v>13.26775236938398</v>
       </c>
       <c r="G3">
-        <v>29.37330305300534</v>
+        <v>130.1951810998075</v>
       </c>
       <c r="H3">
-        <v>0.600330780218381</v>
+        <v>2.660925620427419</v>
       </c>
       <c r="I3">
-        <v>96.06534843686769</v>
+        <v>425.8031660444949</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>49.61011368736565</v>
+        <v>219.8934768845396</v>
       </c>
       <c r="C4">
-        <v>0.6154320749129638</v>
+        <v>2.727861088803408</v>
       </c>
       <c r="D4">
-        <v>5.578649061326768</v>
+        <v>24.7269850285835</v>
       </c>
       <c r="E4">
-        <v>4.067964472341139</v>
+        <v>18.03097766118774</v>
       </c>
       <c r="F4">
-        <v>2.166603929309393</v>
+        <v>9.6033255245065</v>
       </c>
       <c r="G4">
-        <v>19.78202042345258</v>
+        <v>87.68246890395204</v>
       </c>
       <c r="H4">
-        <v>0.4002205201455875</v>
+        <v>1.773950413618279</v>
       </c>
       <c r="I4">
-        <v>82.22100416885408</v>
+        <v>364.439045505191</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>57.53538081169584</v>
+        <v>255.0216879221114</v>
       </c>
       <c r="C5">
-        <v>1.362742451592991</v>
+        <v>6.040263839493261</v>
       </c>
       <c r="D5">
-        <v>11.15729812265354</v>
+        <v>49.45397005716699</v>
       </c>
       <c r="E5">
-        <v>3.853861079060027</v>
+        <v>17.08197883691471</v>
       </c>
       <c r="F5">
-        <v>3.135874108210964</v>
+        <v>13.8995501012594</v>
       </c>
       <c r="G5">
-        <v>22.17984108084078</v>
+        <v>98.31064695291587</v>
       </c>
       <c r="H5">
-        <v>1.000551300363969</v>
+        <v>4.434876034045697</v>
       </c>
       <c r="I5">
-        <v>100.2255489544181</v>
+        <v>444.2429737439073</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>60.41729612963412</v>
+        <v>267.7955828448648</v>
       </c>
       <c r="C6">
-        <v>0.8352292445247367</v>
+        <v>3.702097191947482</v>
       </c>
       <c r="D6">
-        <v>10.53744822695056</v>
+        <v>46.70652727621329</v>
       </c>
       <c r="E6">
-        <v>4.067964472341139</v>
+        <v>18.03097766118774</v>
       </c>
       <c r="F6">
-        <v>3.278413840402371</v>
+        <v>14.53134783313484</v>
       </c>
       <c r="G6">
-        <v>20.38147558779964</v>
+        <v>90.33951341619291</v>
       </c>
       <c r="H6">
-        <v>0.600330780218381</v>
+        <v>2.660925620427419</v>
       </c>
       <c r="I6">
-        <v>100.118158281871</v>
+        <v>443.7669718439685</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>59.59389175308034</v>
+        <v>264.1458985812208</v>
       </c>
       <c r="C7">
-        <v>1.714417922971828</v>
+        <v>7.599041604523776</v>
       </c>
       <c r="D7">
-        <v>8.058048644138664</v>
+        <v>35.71675615239837</v>
       </c>
       <c r="E7">
-        <v>5.138481438746702</v>
+        <v>22.77597178255295</v>
       </c>
       <c r="F7">
-        <v>3.135874108210964</v>
+        <v>13.8995501012594</v>
       </c>
       <c r="G7">
-        <v>19.78202042345258</v>
+        <v>87.68246890395204</v>
       </c>
       <c r="H7">
-        <v>0.600330780218381</v>
+        <v>2.660925620427419</v>
       </c>
       <c r="I7">
-        <v>98.02306507081946</v>
+        <v>434.4806127463348</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>69.68059536586426</v>
+        <v>308.8545308108575</v>
       </c>
       <c r="C8">
-        <v>1.934215092583601</v>
+        <v>8.573277707667851</v>
       </c>
       <c r="D8">
-        <v>11.15729812265354</v>
+        <v>49.45397005716699</v>
       </c>
       <c r="E8">
-        <v>5.352584832027815</v>
+        <v>23.72497060682599</v>
       </c>
       <c r="F8">
-        <v>2.337651607939082</v>
+        <v>10.36148280275701</v>
       </c>
       <c r="G8">
-        <v>14.98637910867621</v>
+        <v>66.42611280602424</v>
       </c>
       <c r="H8">
-        <v>1.400771820509556</v>
+        <v>6.208826447663977</v>
       </c>
       <c r="I8">
-        <v>106.8494959502541</v>
+        <v>473.6031712389635</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,25 +641,25 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>80.6936289022711</v>
+        <v>357.6690578370935</v>
       </c>
       <c r="C9">
-        <v>0.5275132070682548</v>
+        <v>2.338166647545778</v>
       </c>
       <c r="D9">
-        <v>6.818348852732713</v>
+        <v>30.22187059049095</v>
       </c>
       <c r="E9">
-        <v>4.710274652184478</v>
+        <v>20.87797413400687</v>
       </c>
       <c r="F9">
-        <v>1.738984732735171</v>
+        <v>7.707932328880214</v>
       </c>
       <c r="G9">
-        <v>12.58855845128801</v>
+        <v>55.79793475706035</v>
       </c>
       <c r="I9">
-        <v>107.0773087982797</v>
+        <v>474.6129362950776</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -667,28 +667,28 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>77.09123475484827</v>
+        <v>341.701689183652</v>
       </c>
       <c r="C10">
-        <v>0.3077160374564819</v>
+        <v>1.363930544401704</v>
       </c>
       <c r="D10">
-        <v>6.508423904881228</v>
+        <v>28.84814920001408</v>
       </c>
       <c r="E10">
-        <v>7.707722158120053</v>
+        <v>34.16395767382942</v>
       </c>
       <c r="F10">
-        <v>1.396889375475793</v>
+        <v>6.191617772379191</v>
       </c>
       <c r="G10">
-        <v>6.59400680781753</v>
+        <v>29.22748963465066</v>
       </c>
       <c r="H10">
-        <v>0.2001102600727937</v>
+        <v>0.8869752068091395</v>
       </c>
       <c r="I10">
-        <v>99.80610329867216</v>
+        <v>442.3838092157362</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -696,28 +696,28 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>55.68272096444986</v>
+        <v>246.8098983289127</v>
       </c>
       <c r="C11">
-        <v>0.2637566035341274</v>
+        <v>1.169083323772889</v>
       </c>
       <c r="D11">
-        <v>5.268724113475278</v>
+        <v>23.35326363810664</v>
       </c>
       <c r="E11">
-        <v>6.423101798433376</v>
+        <v>28.46996472819119</v>
       </c>
       <c r="F11">
-        <v>0.6271748216421927</v>
+        <v>2.77991002025188</v>
       </c>
       <c r="G11">
-        <v>10.19073779389982</v>
+        <v>45.16975670809646</v>
       </c>
       <c r="H11">
-        <v>0.2001102600727937</v>
+        <v>0.8869752068091395</v>
       </c>
       <c r="I11">
-        <v>78.65632635550745</v>
+        <v>348.638851954141</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -725,28 +725,28 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>50.02181587564256</v>
+        <v>221.7183190163616</v>
       </c>
       <c r="C12">
-        <v>0.7912698106023821</v>
+        <v>3.507249971318668</v>
       </c>
       <c r="D12">
-        <v>4.648874217772304</v>
+        <v>20.60582085715292</v>
       </c>
       <c r="E12">
-        <v>5.566688225308926</v>
+        <v>24.67396943109902</v>
       </c>
       <c r="F12">
-        <v>0.5986668752039114</v>
+        <v>2.653550473876795</v>
       </c>
       <c r="G12">
-        <v>5.395096479123431</v>
+        <v>23.91340061016872</v>
       </c>
       <c r="H12">
-        <v>0.2001102600727937</v>
+        <v>0.8869752068091395</v>
       </c>
       <c r="I12">
-        <v>67.2225217437263</v>
+        <v>297.9592855667868</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -754,28 +754,28 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>36.43564366250505</v>
+        <v>161.4985286662387</v>
       </c>
       <c r="C13">
-        <v>0.1758377356894182</v>
+        <v>0.7793888825152593</v>
       </c>
       <c r="D13">
-        <v>4.029024322069332</v>
+        <v>17.85837807619919</v>
       </c>
       <c r="E13">
-        <v>5.566688225308926</v>
+        <v>24.67396943109902</v>
       </c>
       <c r="F13">
-        <v>0.4561271430125038</v>
+        <v>2.021752742001368</v>
       </c>
       <c r="G13">
-        <v>4.795641314776384</v>
+        <v>21.25635609792776</v>
       </c>
       <c r="H13">
-        <v>0.2001102600727937</v>
+        <v>0.8869752068091395</v>
       </c>
       <c r="I13">
-        <v>51.6590726634344</v>
+        <v>228.9753491027904</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,25 +783,25 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>18.73244956659866</v>
+        <v>83.0303169978967</v>
       </c>
       <c r="C14">
-        <v>0.08791886784470912</v>
+        <v>0.3896944412576296</v>
       </c>
       <c r="D14">
-        <v>1.549624739257435</v>
+        <v>6.868606952384306</v>
       </c>
       <c r="E14">
-        <v>3.639757685778914</v>
+        <v>16.13298001264167</v>
       </c>
       <c r="F14">
-        <v>0.3420953572593778</v>
+        <v>1.516314556501026</v>
       </c>
       <c r="G14">
-        <v>1.798365493041144</v>
+        <v>7.971133536722908</v>
       </c>
       <c r="I14">
-        <v>26.15021170978024</v>
+        <v>115.9090464974042</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -809,25 +809,25 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>15.23298096624506</v>
+        <v>67.51915887741046</v>
       </c>
       <c r="C15">
-        <v>0.3077160374564819</v>
+        <v>1.363930544401704</v>
       </c>
       <c r="D15">
-        <v>2.479399582811896</v>
+        <v>10.98977112381489</v>
       </c>
       <c r="E15">
-        <v>1.284620359686675</v>
+        <v>5.693992945638238</v>
       </c>
       <c r="F15">
-        <v>0.8552383931484446</v>
+        <v>3.790786391252566</v>
       </c>
       <c r="G15">
-        <v>2.997275821735241</v>
+        <v>13.28522256120485</v>
       </c>
       <c r="I15">
-        <v>23.15723116108379</v>
+        <v>102.6428624437227</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -835,19 +835,19 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>12.45399119537602</v>
+        <v>55.20147448761265</v>
       </c>
       <c r="C16">
-        <v>0.2637566035341274</v>
+        <v>1.169083323772889</v>
       </c>
       <c r="F16">
-        <v>0.3706033036976593</v>
+        <v>1.642674102876112</v>
       </c>
       <c r="G16">
-        <v>2.997275821735241</v>
+        <v>13.28522256120485</v>
       </c>
       <c r="I16">
-        <v>16.08562692434304</v>
+        <v>71.2984544754665</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -855,22 +855,22 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>6.79308610656874</v>
+        <v>30.10989517506146</v>
       </c>
       <c r="C17">
-        <v>0.04395943392235456</v>
+        <v>0.1948472206288148</v>
       </c>
       <c r="D17">
-        <v>0.9297748435544608</v>
+        <v>4.121164171430584</v>
       </c>
       <c r="F17">
-        <v>0.2565715179445333</v>
+        <v>1.13723591737577</v>
       </c>
       <c r="G17">
-        <v>1.198910328694096</v>
+        <v>5.314089024481941</v>
       </c>
       <c r="I17">
-        <v>9.222302230684184</v>
+        <v>40.87723150897857</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -878,22 +878,22 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>5.352128447599616</v>
+        <v>23.72294771368479</v>
       </c>
       <c r="C18">
-        <v>0.04395943392235456</v>
+        <v>0.1948472206288148</v>
       </c>
       <c r="D18">
-        <v>0.3099249478514871</v>
+        <v>1.373721390476861</v>
       </c>
       <c r="F18">
-        <v>0.1425397321914074</v>
+        <v>0.6317977318754274</v>
       </c>
       <c r="G18">
-        <v>2.397820657388192</v>
+        <v>10.62817804896388</v>
       </c>
       <c r="I18">
-        <v>8.246373218953057</v>
+        <v>36.55149210562978</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -901,25 +901,25 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>5.146277353461168</v>
+        <v>22.81052664777384</v>
       </c>
       <c r="C19">
-        <v>0.2197971696117728</v>
+        <v>0.9742361031440743</v>
       </c>
       <c r="D19">
-        <v>0.6198498957029741</v>
+        <v>2.747442780953723</v>
       </c>
       <c r="E19">
-        <v>0.8564135731244502</v>
+        <v>3.795995297092157</v>
       </c>
       <c r="F19">
-        <v>0.3420953572593778</v>
+        <v>1.516314556501026</v>
       </c>
       <c r="G19">
-        <v>2.397820657388192</v>
+        <v>10.62817804896388</v>
       </c>
       <c r="I19">
-        <v>9.582254006547934</v>
+        <v>42.47269343442871</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -927,19 +927,19 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>9.469150330368549</v>
+        <v>41.97136903190382</v>
       </c>
       <c r="C20">
-        <v>0.08791886784470912</v>
+        <v>0.3896944412576296</v>
       </c>
       <c r="F20">
-        <v>0.3135874108210964</v>
+        <v>1.38995501012594</v>
       </c>
       <c r="G20">
-        <v>5.395096479123431</v>
+        <v>23.91340061016872</v>
       </c>
       <c r="I20">
-        <v>15.26575308815779</v>
+        <v>67.6644190934561</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -947,28 +947,28 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>31.90691959145925</v>
+        <v>141.4252652161978</v>
       </c>
       <c r="C21">
-        <v>0.1318783017670637</v>
+        <v>0.5845416618864444</v>
       </c>
       <c r="D21">
-        <v>6.818348852732713</v>
+        <v>30.22187059049095</v>
       </c>
       <c r="E21">
-        <v>1.284620359686675</v>
+        <v>5.693992945638238</v>
       </c>
       <c r="F21">
-        <v>1.054794018216415</v>
+        <v>4.675303215878164</v>
       </c>
       <c r="G21">
-        <v>5.395096479123431</v>
+        <v>23.91340061016872</v>
       </c>
       <c r="H21">
-        <v>0.4002205201455875</v>
+        <v>1.773950413618279</v>
       </c>
       <c r="I21">
-        <v>46.99187812313113</v>
+        <v>208.2883246538786</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -976,28 +976,28 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>54.65346549375761</v>
+        <v>242.247792999358</v>
       </c>
       <c r="C22">
-        <v>0.1318783017670637</v>
+        <v>0.5845416618864444</v>
       </c>
       <c r="D22">
-        <v>8.987823487693122</v>
+        <v>39.83792032382895</v>
       </c>
       <c r="E22">
-        <v>7.493618764838939</v>
+        <v>33.21495884955637</v>
       </c>
       <c r="F22">
-        <v>1.881524464926578</v>
+        <v>8.339730060755642</v>
       </c>
       <c r="G22">
-        <v>18.58311009475849</v>
+        <v>82.36837987947006</v>
       </c>
       <c r="H22">
-        <v>0.2001102600727937</v>
+        <v>0.8869752068091395</v>
       </c>
       <c r="I22">
-        <v>91.93153086781462</v>
+        <v>407.4802989816646</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1005,28 +1005,28 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>70.60692528948724</v>
+        <v>312.9604256074568</v>
       </c>
       <c r="C23">
-        <v>0.1318783017670637</v>
+        <v>0.5845416618864444</v>
       </c>
       <c r="D23">
-        <v>4.338949269920817</v>
+        <v>19.23209946667604</v>
       </c>
       <c r="E23">
-        <v>6.851308584995602</v>
+        <v>30.36796237673726</v>
       </c>
       <c r="F23">
-        <v>1.111809911092978</v>
+        <v>4.928022308628336</v>
       </c>
       <c r="G23">
-        <v>9.591282629552769</v>
+        <v>42.51271219585553</v>
       </c>
       <c r="H23">
-        <v>0.4002205201455875</v>
+        <v>1.773950413618279</v>
       </c>
       <c r="I23">
-        <v>93.03237450696204</v>
+        <v>412.3597140308587</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1034,28 +1034,28 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>68.44548880103358</v>
+        <v>303.3800044153917</v>
       </c>
       <c r="C24">
-        <v>0.703350942757673</v>
+        <v>3.117555530061037</v>
       </c>
       <c r="D24">
-        <v>7.438198748435687</v>
+        <v>32.96931337144467</v>
       </c>
       <c r="E24">
-        <v>5.994895011871151</v>
+        <v>26.57196707964511</v>
       </c>
       <c r="F24">
-        <v>1.5394291076672</v>
+        <v>6.823415504254617</v>
       </c>
       <c r="G24">
-        <v>17.38419976606439</v>
+        <v>77.0542908549881</v>
       </c>
       <c r="H24">
-        <v>0.600330780218381</v>
+        <v>2.660925620427419</v>
       </c>
       <c r="I24">
-        <v>102.1058931580481</v>
+        <v>452.5774723762127</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1063,28 +1063,28 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>59.18218956480342</v>
+        <v>262.321056449399</v>
       </c>
       <c r="C25">
-        <v>0.9671075462918003</v>
+        <v>4.286638853833925</v>
       </c>
       <c r="D25">
-        <v>5.888574009178251</v>
+        <v>26.10070641906037</v>
       </c>
       <c r="E25">
-        <v>9.848756090931179</v>
+        <v>43.6539459165598</v>
       </c>
       <c r="F25">
-        <v>2.765270804513304</v>
+        <v>12.25687599838329</v>
       </c>
       <c r="G25">
-        <v>17.38419976606439</v>
+        <v>77.0542908549881</v>
       </c>
       <c r="H25">
-        <v>1.800992340655144</v>
+        <v>7.982776861282256</v>
       </c>
       <c r="I25">
-        <v>97.8370901224375</v>
+        <v>433.6562913535068</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1092,28 +1092,28 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>49.91889032857333</v>
+        <v>221.2621084834062</v>
       </c>
       <c r="C26">
-        <v>0.7473103766800276</v>
+        <v>3.312402750689852</v>
       </c>
       <c r="D26">
-        <v>7.438198748435687</v>
+        <v>32.96931337144467</v>
       </c>
       <c r="E26">
-        <v>4.924378045465589</v>
+        <v>21.8269729582799</v>
       </c>
       <c r="F26">
-        <v>3.107366161772682</v>
+        <v>13.77319055488432</v>
       </c>
       <c r="G26">
-        <v>41.36240633994631</v>
+        <v>183.3360713446269</v>
       </c>
       <c r="H26">
-        <v>0.600330780218381</v>
+        <v>2.660925620427419</v>
       </c>
       <c r="I26">
-        <v>108.098880781092</v>
+        <v>479.1409850837592</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1121,28 +1121,28 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>47.13990055770431</v>
+        <v>208.9444240936083</v>
       </c>
       <c r="C27">
-        <v>1.142945281981218</v>
+        <v>5.066027736349185</v>
       </c>
       <c r="D27">
-        <v>7.438198748435687</v>
+        <v>32.96931337144467</v>
       </c>
       <c r="E27">
-        <v>4.282067865622251</v>
+        <v>18.97997648546079</v>
       </c>
       <c r="F27">
-        <v>3.392445626155497</v>
+        <v>15.03678601863518</v>
       </c>
       <c r="G27">
-        <v>37.76567535386403</v>
+        <v>167.393804271181</v>
       </c>
       <c r="H27">
-        <v>0.4002205201455875</v>
+        <v>1.773950413618279</v>
       </c>
       <c r="I27">
-        <v>101.5614539539086</v>
+        <v>450.1642823902974</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1150,28 +1150,28 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>46.62527282235818</v>
+        <v>206.6633714288309</v>
       </c>
       <c r="C28">
-        <v>0.4835537731459001</v>
+        <v>2.143319426916963</v>
       </c>
       <c r="D28">
-        <v>4.338949269920817</v>
+        <v>19.23209946667604</v>
       </c>
       <c r="E28">
-        <v>5.138481438746702</v>
+        <v>22.77597178255295</v>
       </c>
       <c r="F28">
-        <v>1.824508572050015</v>
+        <v>8.087010968005472</v>
       </c>
       <c r="G28">
-        <v>20.38147558779964</v>
+        <v>90.33951341619291</v>
       </c>
       <c r="H28">
-        <v>0.600330780218381</v>
+        <v>2.660925620427419</v>
       </c>
       <c r="I28">
-        <v>79.39257224423963</v>
+        <v>351.9022121096027</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1179,28 +1179,28 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>57.63830635876509</v>
+        <v>255.4778984550668</v>
       </c>
       <c r="C29">
-        <v>1.362742451592991</v>
+        <v>6.040263839493261</v>
       </c>
       <c r="D29">
-        <v>13.94662265331691</v>
+        <v>61.81746257145878</v>
       </c>
       <c r="E29">
-        <v>6.423101798433376</v>
+        <v>28.46996472819119</v>
       </c>
       <c r="F29">
-        <v>2.993334376019556</v>
+        <v>13.26775236938398</v>
       </c>
       <c r="G29">
-        <v>30.57221338169946</v>
+        <v>135.5092701242894</v>
       </c>
       <c r="H29">
-        <v>1.60088208058235</v>
+        <v>7.095801654473116</v>
       </c>
       <c r="I29">
-        <v>114.5372031004098</v>
+        <v>507.6784137423566</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1208,28 +1208,28 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>51.35984798754247</v>
+        <v>227.6490559447828</v>
       </c>
       <c r="C30">
-        <v>0.6593915088353185</v>
+        <v>2.922708309432222</v>
       </c>
       <c r="D30">
-        <v>11.15729812265354</v>
+        <v>49.45397005716699</v>
       </c>
       <c r="E30">
-        <v>3.425654292497801</v>
+        <v>15.18398118836863</v>
       </c>
       <c r="F30">
-        <v>3.335429733278934</v>
+        <v>14.784066925885</v>
       </c>
       <c r="G30">
-        <v>14.98637910867621</v>
+        <v>66.42611280602424</v>
       </c>
       <c r="H30">
-        <v>0.8004410402911749</v>
+        <v>3.547900827236558</v>
       </c>
       <c r="I30">
-        <v>85.72444179377543</v>
+        <v>379.9677960588965</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1237,28 +1237,28 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>61.34362605325711</v>
+        <v>271.9014776414641</v>
       </c>
       <c r="C31">
-        <v>1.142945281981218</v>
+        <v>5.066027736349185</v>
       </c>
       <c r="D31">
-        <v>10.84737317480205</v>
+        <v>48.08024866669018</v>
       </c>
       <c r="E31">
-        <v>4.282067865622251</v>
+        <v>18.97997648546079</v>
       </c>
       <c r="F31">
-        <v>2.850794643828149</v>
+        <v>12.63595463750855</v>
       </c>
       <c r="G31">
-        <v>20.98093075214669</v>
+        <v>92.99655792843393</v>
       </c>
       <c r="H31">
-        <v>1.000551300363969</v>
+        <v>4.434876034045697</v>
       </c>
       <c r="I31">
-        <v>102.4482890720014</v>
+        <v>454.0951191299525</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1266,28 +1266,28 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>71.22447857190259</v>
+        <v>315.6976888051896</v>
       </c>
       <c r="C32">
-        <v>1.626499055127119</v>
+        <v>7.209347163266148</v>
       </c>
       <c r="D32">
-        <v>10.22752327909907</v>
+        <v>45.33280588573641</v>
       </c>
       <c r="E32">
-        <v>5.138481438746702</v>
+        <v>22.77597178255295</v>
       </c>
       <c r="F32">
-        <v>2.337651607939082</v>
+        <v>10.36148280275701</v>
       </c>
       <c r="G32">
-        <v>26.97548239561717</v>
+        <v>119.5670030508436</v>
       </c>
       <c r="H32">
-        <v>1.000551300363969</v>
+        <v>4.434876034045697</v>
       </c>
       <c r="I32">
-        <v>118.5306676487957</v>
+        <v>525.3791755243915</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1295,25 +1295,25 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>81.92873546710182</v>
+        <v>363.1435842325593</v>
       </c>
       <c r="C33">
-        <v>0.3956349053011911</v>
+        <v>1.753624985659334</v>
       </c>
       <c r="D33">
-        <v>4.958799165623793</v>
+        <v>21.97954224762978</v>
       </c>
       <c r="E33">
-        <v>4.282067865622251</v>
+        <v>18.97997648546079</v>
       </c>
       <c r="F33">
-        <v>1.510921161228919</v>
+        <v>6.697055957879531</v>
       </c>
       <c r="G33">
-        <v>11.38964812259391</v>
+        <v>50.48384573257842</v>
       </c>
       <c r="I33">
-        <v>104.4658066874719</v>
+        <v>463.0376296417671</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1321,28 +1321,28 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>85.01650187917853</v>
+        <v>376.8299002212236</v>
       </c>
       <c r="C34">
-        <v>0.1318783017670637</v>
+        <v>0.5845416618864444</v>
       </c>
       <c r="D34">
-        <v>4.338949269920817</v>
+        <v>19.23209946667604</v>
       </c>
       <c r="E34">
-        <v>7.493618764838939</v>
+        <v>33.21495884955637</v>
       </c>
       <c r="F34">
-        <v>1.5394291076672</v>
+        <v>6.823415504254617</v>
       </c>
       <c r="G34">
-        <v>4.196186150429337</v>
+        <v>18.59931158568679</v>
       </c>
       <c r="H34">
-        <v>0.4002205201455875</v>
+        <v>1.773950413618279</v>
       </c>
       <c r="I34">
-        <v>103.1167839939475</v>
+        <v>457.0581777029021</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1350,28 +1350,28 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>59.49096620601109</v>
+        <v>263.6896880482654</v>
       </c>
       <c r="C35">
-        <v>0.1318783017670637</v>
+        <v>0.5845416618864444</v>
       </c>
       <c r="D35">
-        <v>4.029024322069332</v>
+        <v>17.85837807619919</v>
       </c>
       <c r="E35">
-        <v>5.780791618590039</v>
+        <v>25.62296825537207</v>
       </c>
       <c r="F35">
-        <v>0.7982225002718818</v>
+        <v>3.538067298502394</v>
       </c>
       <c r="G35">
-        <v>12.58855845128801</v>
+        <v>55.79793475706035</v>
       </c>
       <c r="H35">
-        <v>0.4002205201455875</v>
+        <v>1.773950413618279</v>
       </c>
       <c r="I35">
-        <v>83.219661920143</v>
+        <v>368.8655285109041</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1379,28 +1379,28 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>56.60905088807286</v>
+        <v>250.9157931255121</v>
       </c>
       <c r="C36">
-        <v>0.2637566035341274</v>
+        <v>1.169083323772889</v>
       </c>
       <c r="D36">
-        <v>2.789324530663384</v>
+        <v>12.36349251429175</v>
       </c>
       <c r="E36">
-        <v>7.065411978276714</v>
+        <v>31.3169612010103</v>
       </c>
       <c r="F36">
-        <v>0.6841907145187557</v>
+        <v>3.032629113002052</v>
       </c>
       <c r="G36">
-        <v>5.395096479123431</v>
+        <v>23.91340061016872</v>
       </c>
       <c r="H36">
-        <v>0.4002205201455875</v>
+        <v>1.773950413618279</v>
       </c>
       <c r="I36">
-        <v>73.20705171433485</v>
+        <v>324.485310301376</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1408,28 +1408,28 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>39.93511226285867</v>
+        <v>177.009686786725</v>
       </c>
       <c r="C37">
-        <v>0.08791886784470912</v>
+        <v>0.3896944412576296</v>
       </c>
       <c r="D37">
-        <v>3.409174426366357</v>
+        <v>15.11093529524548</v>
       </c>
       <c r="E37">
-        <v>5.138481438746702</v>
+        <v>22.77597178255295</v>
       </c>
       <c r="F37">
-        <v>0.9122542860250077</v>
+        <v>4.043505484002736</v>
       </c>
       <c r="G37">
-        <v>5.994551643470482</v>
+        <v>26.5704451224097</v>
       </c>
       <c r="H37">
-        <v>0.4002205201455875</v>
+        <v>1.773950413618279</v>
       </c>
       <c r="I37">
-        <v>55.87771344545752</v>
+        <v>247.6741893258117</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1437,25 +1437,25 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>20.58510941384467</v>
+        <v>91.24210659109535</v>
       </c>
       <c r="C38">
-        <v>0.08791886784470912</v>
+        <v>0.3896944412576296</v>
       </c>
       <c r="D38">
-        <v>1.549624739257435</v>
+        <v>6.868606952384306</v>
       </c>
       <c r="E38">
-        <v>3.639757685778914</v>
+        <v>16.13298001264167</v>
       </c>
       <c r="F38">
-        <v>0.3991112501359409</v>
+        <v>1.769033649251197</v>
       </c>
       <c r="G38">
-        <v>2.997275821735241</v>
+        <v>13.28522256120485</v>
       </c>
       <c r="I38">
-        <v>29.25879777859691</v>
+        <v>129.687644207835</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1463,25 +1463,25 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>17.80611964297565</v>
+        <v>78.9244222012974</v>
       </c>
       <c r="C39">
-        <v>0.4835537731459001</v>
+        <v>2.143319426916963</v>
       </c>
       <c r="D39">
-        <v>2.789324530663384</v>
+        <v>12.36349251429175</v>
       </c>
       <c r="E39">
-        <v>0.8564135731244502</v>
+        <v>3.795995297092157</v>
       </c>
       <c r="F39">
-        <v>0.6271748216421927</v>
+        <v>2.77991002025188</v>
       </c>
       <c r="G39">
-        <v>2.397820657388192</v>
+        <v>10.62817804896388</v>
       </c>
       <c r="I39">
-        <v>24.96040699893976</v>
+        <v>110.635317508814</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1489,19 +1489,19 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>13.68909776020671</v>
+        <v>60.67600088307837</v>
       </c>
       <c r="C40">
-        <v>0.4835537731459001</v>
+        <v>2.143319426916963</v>
       </c>
       <c r="F40">
-        <v>0.4846350894507852</v>
+        <v>2.148112288376455</v>
       </c>
       <c r="G40">
-        <v>4.196186150429337</v>
+        <v>18.59931158568679</v>
       </c>
       <c r="I40">
-        <v>18.85347277323273</v>
+        <v>83.56674418405858</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1509,22 +1509,22 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>8.439894859676309</v>
+        <v>37.40926370234907</v>
       </c>
       <c r="C41">
-        <v>0.04395943392235456</v>
+        <v>0.1948472206288148</v>
       </c>
       <c r="D41">
-        <v>0.9297748435544608</v>
+        <v>4.121164171430584</v>
       </c>
       <c r="F41">
-        <v>0.2565715179445333</v>
+        <v>1.13723591737577</v>
       </c>
       <c r="G41">
-        <v>1.798365493041144</v>
+        <v>7.971133536722908</v>
       </c>
       <c r="I41">
-        <v>11.4685661481388</v>
+        <v>50.83364454850715</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1532,22 +1532,22 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>7.204788294845637</v>
+        <v>31.93473730688335</v>
       </c>
       <c r="C42">
-        <v>0.04395943392235456</v>
+        <v>0.1948472206288148</v>
       </c>
       <c r="D42">
-        <v>0.6198498957029741</v>
+        <v>2.747442780953723</v>
       </c>
       <c r="F42">
-        <v>0.1425397321914074</v>
+        <v>0.6317977318754274</v>
       </c>
       <c r="G42">
-        <v>2.397820657388192</v>
+        <v>10.62817804896388</v>
       </c>
       <c r="I42">
-        <v>10.40895801405057</v>
+        <v>46.1370030893052</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1555,25 +1555,25 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>5.249202900530393</v>
+        <v>23.2667371807293</v>
       </c>
       <c r="C43">
-        <v>0.1318783017670637</v>
+        <v>0.5845416618864444</v>
       </c>
       <c r="D43">
-        <v>0.6198498957029741</v>
+        <v>2.747442780953723</v>
       </c>
       <c r="E43">
-        <v>0.4282067865622251</v>
+        <v>1.897997648546079</v>
       </c>
       <c r="F43">
-        <v>0.2565715179445333</v>
+        <v>1.13723591737577</v>
       </c>
       <c r="G43">
-        <v>3.596730986082287</v>
+        <v>15.94226707344582</v>
       </c>
       <c r="I43">
-        <v>10.28244038858948</v>
+        <v>45.57622226293713</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1581,19 +1581,19 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>9.36622478329933</v>
+        <v>41.51515849894835</v>
       </c>
       <c r="C44">
-        <v>0.08791886784470912</v>
+        <v>0.3896944412576296</v>
       </c>
       <c r="F44">
-        <v>0.3420953572593778</v>
+        <v>1.516314556501026</v>
       </c>
       <c r="G44">
-        <v>6.59400680781753</v>
+        <v>29.22748963465066</v>
       </c>
       <c r="I44">
-        <v>16.39024581622095</v>
+        <v>72.64865713135767</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1601,28 +1601,28 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>32.1127706855977</v>
+        <v>142.3376862821087</v>
       </c>
       <c r="C45">
-        <v>0.1318783017670637</v>
+        <v>0.5845416618864444</v>
       </c>
       <c r="D45">
-        <v>3.719099374217843</v>
+        <v>16.48465668572234</v>
       </c>
       <c r="E45">
-        <v>1.070516966405563</v>
+        <v>4.744994121365197</v>
       </c>
       <c r="F45">
-        <v>1.425397321914074</v>
+        <v>6.317977318754276</v>
       </c>
       <c r="G45">
-        <v>5.395096479123431</v>
+        <v>23.91340061016872</v>
       </c>
       <c r="H45">
-        <v>0.8004410402911749</v>
+        <v>3.547900827236558</v>
       </c>
       <c r="I45">
-        <v>44.65520016931685</v>
+        <v>197.9311575072423</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1630,28 +1630,28 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>56.40319979393441</v>
+        <v>250.003372059601</v>
       </c>
       <c r="C46">
-        <v>0.04395943392235456</v>
+        <v>0.1948472206288148</v>
       </c>
       <c r="D46">
-        <v>5.888574009178251</v>
+        <v>26.10070641906037</v>
       </c>
       <c r="E46">
-        <v>7.493618764838939</v>
+        <v>33.21495884955637</v>
       </c>
       <c r="F46">
-        <v>1.910032411364859</v>
+        <v>8.466089607130728</v>
       </c>
       <c r="G46">
-        <v>24.57766173822898</v>
+        <v>108.9388250018798</v>
       </c>
       <c r="H46">
-        <v>0.2001102600727937</v>
+        <v>0.8869752068091395</v>
       </c>
       <c r="I46">
-        <v>96.51715641154058</v>
+        <v>427.8057743646663</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1659,28 +1659,28 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>71.84203185431787</v>
+        <v>318.4349520029226</v>
       </c>
       <c r="C47">
-        <v>0.1318783017670637</v>
+        <v>0.5845416618864444</v>
       </c>
       <c r="D47">
-        <v>5.268724113475278</v>
+        <v>23.35326363810664</v>
       </c>
       <c r="E47">
-        <v>6.423101798433376</v>
+        <v>28.46996472819119</v>
       </c>
       <c r="F47">
-        <v>0.9977781253398521</v>
+        <v>4.422584123127993</v>
       </c>
       <c r="G47">
-        <v>10.79019295824686</v>
+        <v>47.82680122033744</v>
       </c>
       <c r="H47">
-        <v>0.2001102600727937</v>
+        <v>0.8869752068091395</v>
       </c>
       <c r="I47">
-        <v>95.65381741165308</v>
+        <v>423.9790825813814</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1688,28 +1688,28 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>65.6664990301645</v>
+        <v>291.062320025594</v>
       </c>
       <c r="C48">
-        <v>0.7473103766800276</v>
+        <v>3.312402750689852</v>
       </c>
       <c r="D48">
-        <v>8.367973591990147</v>
+        <v>37.09047754287525</v>
       </c>
       <c r="E48">
-        <v>6.637205191714488</v>
+        <v>29.41896355246422</v>
       </c>
       <c r="F48">
-        <v>1.596445000543764</v>
+        <v>7.076134597004788</v>
       </c>
       <c r="G48">
-        <v>15.58583427302325</v>
+        <v>69.08315731826519</v>
       </c>
       <c r="H48">
-        <v>0.8004410402911749</v>
+        <v>3.547900827236558</v>
       </c>
       <c r="I48">
-        <v>99.40170850440737</v>
+        <v>440.5913566141298</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1717,28 +1717,28 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>59.18218956480342</v>
+        <v>262.321056449399</v>
       </c>
       <c r="C49">
-        <v>0.9671075462918003</v>
+        <v>4.286638853833925</v>
       </c>
       <c r="D49">
-        <v>5.888574009178251</v>
+        <v>26.10070641906037</v>
       </c>
       <c r="E49">
-        <v>9.848756090931179</v>
+        <v>43.6539459165598</v>
       </c>
       <c r="F49">
-        <v>2.765270804513304</v>
+        <v>12.25687599838329</v>
       </c>
       <c r="G49">
-        <v>17.38419976606439</v>
+        <v>77.0542908549881</v>
       </c>
       <c r="H49">
-        <v>1.800992340655144</v>
+        <v>7.982776861282256</v>
       </c>
       <c r="I49">
-        <v>97.8370901224375</v>
+        <v>433.6562913535068</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_W_겨울_배출량/경기동로_W_겨울_배출량_CO.xlsx
+++ b/output/경기동로_W_겨울_배출량/경기동로_W_겨울_배출량_CO.xlsx
@@ -438,28 +438,28 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>214.8751610220294</v>
+        <v>47.75003578267323</v>
       </c>
       <c r="C2">
-        <v>3.896944412576297</v>
+        <v>0.8659876472391771</v>
       </c>
       <c r="D2">
-        <v>37.09047754287525</v>
+        <v>8.242328342861168</v>
       </c>
       <c r="E2">
-        <v>21.8269729582799</v>
+        <v>4.850438435173313</v>
       </c>
       <c r="F2">
-        <v>12.88867373025872</v>
+        <v>2.864149717835271</v>
       </c>
       <c r="G2">
-        <v>154.1085817099762</v>
+        <v>34.24635149110585</v>
       </c>
       <c r="H2">
-        <v>2.660925620427419</v>
+        <v>0.5913168045394265</v>
       </c>
       <c r="I2">
-        <v>447.3477369964232</v>
+        <v>99.41060822142744</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>215.331371554985</v>
+        <v>47.85141590110777</v>
       </c>
       <c r="C3">
-        <v>4.481486074462741</v>
+        <v>0.9958857943250535</v>
       </c>
       <c r="D3">
-        <v>37.09047754287525</v>
+        <v>8.242328342861168</v>
       </c>
       <c r="E3">
-        <v>22.77597178255295</v>
+        <v>5.061327062789545</v>
       </c>
       <c r="F3">
-        <v>13.26775236938398</v>
+        <v>2.948389415418662</v>
       </c>
       <c r="G3">
-        <v>130.1951810998075</v>
+        <v>28.93226246662389</v>
       </c>
       <c r="H3">
-        <v>2.660925620427419</v>
+        <v>0.5913168045394265</v>
       </c>
       <c r="I3">
-        <v>425.8031660444949</v>
+        <v>94.62292578766552</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>219.8934768845396</v>
+        <v>48.86521708545324</v>
       </c>
       <c r="C4">
-        <v>2.727861088803408</v>
+        <v>0.6061913530674239</v>
       </c>
       <c r="D4">
-        <v>24.7269850285835</v>
+        <v>5.494885561907446</v>
       </c>
       <c r="E4">
-        <v>18.03097766118774</v>
+        <v>4.006883924708389</v>
       </c>
       <c r="F4">
-        <v>9.6033255245065</v>
+        <v>2.134072338779222</v>
       </c>
       <c r="G4">
-        <v>87.68246890395204</v>
+        <v>19.48499308976712</v>
       </c>
       <c r="H4">
-        <v>1.773950413618279</v>
+        <v>0.3942112030262843</v>
       </c>
       <c r="I4">
-        <v>364.439045505191</v>
+        <v>80.98645455670912</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>255.0216879221114</v>
+        <v>56.67148620491364</v>
       </c>
       <c r="C5">
-        <v>6.040263839493261</v>
+        <v>1.342280853220724</v>
       </c>
       <c r="D5">
-        <v>49.45397005716699</v>
+        <v>10.98977112381489</v>
       </c>
       <c r="E5">
-        <v>17.08197883691471</v>
+        <v>3.795995297092157</v>
       </c>
       <c r="F5">
-        <v>13.8995501012594</v>
+        <v>3.088788911390978</v>
       </c>
       <c r="G5">
-        <v>98.31064695291587</v>
+        <v>21.8468104339813</v>
       </c>
       <c r="H5">
-        <v>4.434876034045697</v>
+        <v>0.9855280075657108</v>
       </c>
       <c r="I5">
-        <v>444.2429737439073</v>
+        <v>98.7206608319794</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>267.7955828448648</v>
+        <v>59.51012952108105</v>
       </c>
       <c r="C6">
-        <v>3.702097191947482</v>
+        <v>0.8226882648772181</v>
       </c>
       <c r="D6">
-        <v>46.70652727621329</v>
+        <v>10.37922828360295</v>
       </c>
       <c r="E6">
-        <v>18.03097766118774</v>
+        <v>4.006883924708389</v>
       </c>
       <c r="F6">
-        <v>14.53134783313484</v>
+        <v>3.229188407363296</v>
       </c>
       <c r="G6">
-        <v>90.33951341619291</v>
+        <v>20.07544742582067</v>
       </c>
       <c r="H6">
-        <v>2.660925620427419</v>
+        <v>0.5913168045394265</v>
       </c>
       <c r="I6">
-        <v>443.7669718439685</v>
+        <v>98.614882631993</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>264.1458985812208</v>
+        <v>58.69908857360466</v>
       </c>
       <c r="C7">
-        <v>7.599041604523776</v>
+        <v>1.688675912116395</v>
       </c>
       <c r="D7">
-        <v>35.71675615239837</v>
+        <v>7.937056922755198</v>
       </c>
       <c r="E7">
-        <v>22.77597178255295</v>
+        <v>5.061327062789545</v>
       </c>
       <c r="F7">
-        <v>13.8995501012594</v>
+        <v>3.088788911390978</v>
       </c>
       <c r="G7">
-        <v>87.68246890395204</v>
+        <v>19.48499308976712</v>
       </c>
       <c r="H7">
-        <v>2.660925620427419</v>
+        <v>0.5913168045394265</v>
       </c>
       <c r="I7">
-        <v>434.4806127463348</v>
+        <v>96.55124727696332</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>308.8545308108575</v>
+        <v>68.63434018019061</v>
       </c>
       <c r="C8">
-        <v>8.573277707667851</v>
+        <v>1.905172823926189</v>
       </c>
       <c r="D8">
-        <v>49.45397005716699</v>
+        <v>10.98977112381489</v>
       </c>
       <c r="E8">
-        <v>23.72497060682599</v>
+        <v>5.272215690405778</v>
       </c>
       <c r="F8">
-        <v>10.36148280275701</v>
+        <v>2.302551733946003</v>
       </c>
       <c r="G8">
-        <v>66.42611280602424</v>
+        <v>14.76135840133873</v>
       </c>
       <c r="H8">
-        <v>6.208826447663977</v>
+        <v>1.379739210591995</v>
       </c>
       <c r="I8">
-        <v>473.6031712389635</v>
+        <v>105.2451491642142</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,25 +641,25 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>357.6690578370935</v>
+        <v>79.48201285268745</v>
       </c>
       <c r="C9">
-        <v>2.338166647545778</v>
+        <v>0.5195925883435062</v>
       </c>
       <c r="D9">
-        <v>30.22187059049095</v>
+        <v>6.715971242331322</v>
       </c>
       <c r="E9">
-        <v>20.87797413400687</v>
+        <v>4.639549807557082</v>
       </c>
       <c r="F9">
-        <v>7.707932328880214</v>
+        <v>1.712873850862271</v>
       </c>
       <c r="G9">
-        <v>55.79793475706035</v>
+        <v>12.39954105712452</v>
       </c>
       <c r="I9">
-        <v>474.6129362950776</v>
+        <v>105.4695413989061</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -667,28 +667,28 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>341.701689183652</v>
+        <v>75.93370870747819</v>
       </c>
       <c r="C10">
-        <v>1.363930544401704</v>
+        <v>0.3030956765337119</v>
       </c>
       <c r="D10">
-        <v>28.84814920001408</v>
+        <v>6.41069982222535</v>
       </c>
       <c r="E10">
-        <v>34.16395767382942</v>
+        <v>7.591990594184314</v>
       </c>
       <c r="F10">
-        <v>6.191617772379191</v>
+        <v>1.375915060528709</v>
       </c>
       <c r="G10">
-        <v>29.22748963465066</v>
+        <v>6.494997696589037</v>
       </c>
       <c r="H10">
-        <v>0.8869752068091395</v>
+        <v>0.1971056015131421</v>
       </c>
       <c r="I10">
-        <v>442.3838092157362</v>
+        <v>98.30751315905246</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -696,28 +696,28 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>246.8098983289127</v>
+        <v>54.84664407309173</v>
       </c>
       <c r="C11">
-        <v>1.169083323772889</v>
+        <v>0.2597962941717531</v>
       </c>
       <c r="D11">
-        <v>23.35326363810664</v>
+        <v>5.189614141801474</v>
       </c>
       <c r="E11">
-        <v>28.46996472819119</v>
+        <v>6.32665882848693</v>
       </c>
       <c r="F11">
-        <v>2.77991002025188</v>
+        <v>0.6177577822781958</v>
       </c>
       <c r="G11">
-        <v>45.16975670809646</v>
+        <v>10.03772371291033</v>
       </c>
       <c r="H11">
-        <v>0.8869752068091395</v>
+        <v>0.1971056015131421</v>
       </c>
       <c r="I11">
-        <v>348.638851954141</v>
+        <v>77.47530043425355</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -725,28 +725,28 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>221.7183190163616</v>
+        <v>49.27073755919147</v>
       </c>
       <c r="C12">
-        <v>3.507249971318668</v>
+        <v>0.7793888825152593</v>
       </c>
       <c r="D12">
-        <v>20.60582085715292</v>
+        <v>4.579071301589539</v>
       </c>
       <c r="E12">
-        <v>24.67396943109902</v>
+        <v>5.483104318022007</v>
       </c>
       <c r="F12">
-        <v>2.653550473876795</v>
+        <v>0.5896778830837326</v>
       </c>
       <c r="G12">
-        <v>23.91340061016872</v>
+        <v>5.314089024481941</v>
       </c>
       <c r="H12">
-        <v>0.8869752068091395</v>
+        <v>0.1971056015131421</v>
       </c>
       <c r="I12">
-        <v>297.9592855667868</v>
+        <v>66.21317457039709</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -754,28 +754,28 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>161.4985286662387</v>
+        <v>35.88856192583084</v>
       </c>
       <c r="C13">
-        <v>0.7793888825152593</v>
+        <v>0.1731975294478354</v>
       </c>
       <c r="D13">
-        <v>17.85837807619919</v>
+        <v>3.968528461377599</v>
       </c>
       <c r="E13">
-        <v>24.67396943109902</v>
+        <v>5.483104318022007</v>
       </c>
       <c r="F13">
-        <v>2.021752742001368</v>
+        <v>0.4492783871114153</v>
       </c>
       <c r="G13">
-        <v>21.25635609792776</v>
+        <v>4.72363468842839</v>
       </c>
       <c r="H13">
-        <v>0.8869752068091395</v>
+        <v>0.1971056015131421</v>
       </c>
       <c r="I13">
-        <v>228.9753491027904</v>
+        <v>50.88341091173123</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,25 +783,25 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>83.0303169978967</v>
+        <v>18.45118155508816</v>
       </c>
       <c r="C14">
-        <v>0.3896944412576296</v>
+        <v>0.0865987647239177</v>
       </c>
       <c r="D14">
-        <v>6.868606952384306</v>
+        <v>1.526357100529846</v>
       </c>
       <c r="E14">
-        <v>16.13298001264167</v>
+        <v>3.585106669475927</v>
       </c>
       <c r="F14">
-        <v>1.516314556501026</v>
+        <v>0.3369587903335614</v>
       </c>
       <c r="G14">
-        <v>7.971133536722908</v>
+        <v>1.771363008160646</v>
       </c>
       <c r="I14">
-        <v>115.9090464974042</v>
+        <v>25.75756588831206</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -809,25 +809,25 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>67.51915887741046</v>
+        <v>15.00425752831345</v>
       </c>
       <c r="C15">
-        <v>1.363930544401704</v>
+        <v>0.3030956765337119</v>
       </c>
       <c r="D15">
-        <v>10.98977112381489</v>
+        <v>2.442171360847754</v>
       </c>
       <c r="E15">
-        <v>5.693992945638238</v>
+        <v>1.265331765697386</v>
       </c>
       <c r="F15">
-        <v>3.790786391252566</v>
+        <v>0.8423969758339031</v>
       </c>
       <c r="G15">
-        <v>13.28522256120485</v>
+        <v>2.952271680267743</v>
       </c>
       <c r="I15">
-        <v>102.6428624437227</v>
+        <v>22.80952498749395</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -835,19 +835,19 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>55.20147448761265</v>
+        <v>12.26699433058059</v>
       </c>
       <c r="C16">
-        <v>1.169083323772889</v>
+        <v>0.2597962941717531</v>
       </c>
       <c r="F16">
-        <v>1.642674102876112</v>
+        <v>0.3650386895280248</v>
       </c>
       <c r="G16">
-        <v>13.28522256120485</v>
+        <v>2.952271680267743</v>
       </c>
       <c r="I16">
-        <v>71.2984544754665</v>
+        <v>15.84410099454811</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -855,22 +855,22 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>30.10989517506146</v>
+        <v>6.691087816680323</v>
       </c>
       <c r="C17">
-        <v>0.1948472206288148</v>
+        <v>0.04329938236195885</v>
       </c>
       <c r="D17">
-        <v>4.121164171430584</v>
+        <v>0.9158142603179072</v>
       </c>
       <c r="F17">
-        <v>1.13723591737577</v>
+        <v>0.252719092750171</v>
       </c>
       <c r="G17">
-        <v>5.314089024481941</v>
+        <v>1.180908672107098</v>
       </c>
       <c r="I17">
-        <v>40.87723150897857</v>
+        <v>9.083829224217457</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -878,22 +878,22 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>23.72294771368479</v>
+        <v>5.271766158596617</v>
       </c>
       <c r="C18">
-        <v>0.1948472206288148</v>
+        <v>0.04329938236195885</v>
       </c>
       <c r="D18">
-        <v>1.373721390476861</v>
+        <v>0.3052714201059692</v>
       </c>
       <c r="F18">
-        <v>0.6317977318754274</v>
+        <v>0.1403994959723173</v>
       </c>
       <c r="G18">
-        <v>10.62817804896388</v>
+        <v>2.361817344214195</v>
       </c>
       <c r="I18">
-        <v>36.55149210562978</v>
+        <v>8.122553801251058</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -901,25 +901,25 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>22.81052664777384</v>
+        <v>5.069005921727516</v>
       </c>
       <c r="C19">
-        <v>0.9742361031440743</v>
+        <v>0.2164969118097943</v>
       </c>
       <c r="D19">
-        <v>2.747442780953723</v>
+        <v>0.6105428402119384</v>
       </c>
       <c r="E19">
-        <v>3.795995297092157</v>
+        <v>0.8435545104649241</v>
       </c>
       <c r="F19">
-        <v>1.516314556501026</v>
+        <v>0.3369587903335614</v>
       </c>
       <c r="G19">
-        <v>10.62817804896388</v>
+        <v>2.361817344214195</v>
       </c>
       <c r="I19">
-        <v>42.47269343442871</v>
+        <v>9.438376318761929</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -927,19 +927,19 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>41.97136903190382</v>
+        <v>9.326970895978629</v>
       </c>
       <c r="C20">
-        <v>0.3896944412576296</v>
+        <v>0.0865987647239177</v>
       </c>
       <c r="F20">
-        <v>1.38995501012594</v>
+        <v>0.3088788911390979</v>
       </c>
       <c r="G20">
-        <v>23.91340061016872</v>
+        <v>5.314089024481941</v>
       </c>
       <c r="I20">
-        <v>67.6644190934561</v>
+        <v>15.03653757632359</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -947,28 +947,28 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>141.4252652161978</v>
+        <v>31.4278367147106</v>
       </c>
       <c r="C21">
-        <v>0.5845416618864444</v>
+        <v>0.1298981470858765</v>
       </c>
       <c r="D21">
-        <v>30.22187059049095</v>
+        <v>6.715971242331322</v>
       </c>
       <c r="E21">
-        <v>5.693992945638238</v>
+        <v>1.265331765697386</v>
       </c>
       <c r="F21">
-        <v>4.675303215878164</v>
+        <v>1.038956270195147</v>
       </c>
       <c r="G21">
-        <v>23.91340061016872</v>
+        <v>5.314089024481941</v>
       </c>
       <c r="H21">
-        <v>1.773950413618279</v>
+        <v>0.3942112030262843</v>
       </c>
       <c r="I21">
-        <v>208.2883246538786</v>
+        <v>46.28629436752857</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -976,28 +976,28 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>242.247792999358</v>
+        <v>53.83284288874625</v>
       </c>
       <c r="C22">
-        <v>0.5845416618864444</v>
+        <v>0.1298981470858765</v>
       </c>
       <c r="D22">
-        <v>39.83792032382895</v>
+        <v>8.852871183073104</v>
       </c>
       <c r="E22">
-        <v>33.21495884955637</v>
+        <v>7.381101966568083</v>
       </c>
       <c r="F22">
-        <v>8.339730060755642</v>
+        <v>1.853273346834588</v>
       </c>
       <c r="G22">
-        <v>82.36837987947006</v>
+        <v>18.30408441766</v>
       </c>
       <c r="H22">
-        <v>0.8869752068091395</v>
+        <v>0.1971056015131421</v>
       </c>
       <c r="I22">
-        <v>407.4802989816646</v>
+        <v>90.55117755148105</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1005,28 +1005,28 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>312.9604256074568</v>
+        <v>69.54676124610155</v>
       </c>
       <c r="C23">
-        <v>0.5845416618864444</v>
+        <v>0.1298981470858765</v>
       </c>
       <c r="D23">
-        <v>19.23209946667604</v>
+        <v>4.273799881483566</v>
       </c>
       <c r="E23">
-        <v>30.36796237673726</v>
+        <v>6.748436083719393</v>
       </c>
       <c r="F23">
-        <v>4.928022308628336</v>
+        <v>1.095116068584075</v>
       </c>
       <c r="G23">
-        <v>42.51271219585553</v>
+        <v>9.447269376856781</v>
       </c>
       <c r="H23">
-        <v>1.773950413618279</v>
+        <v>0.3942112030262843</v>
       </c>
       <c r="I23">
-        <v>412.3597140308587</v>
+        <v>91.63549200685755</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1034,28 +1034,28 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>303.3800044153917</v>
+        <v>67.41777875897598</v>
       </c>
       <c r="C24">
-        <v>3.117555530061037</v>
+        <v>0.6927901177913416</v>
       </c>
       <c r="D24">
-        <v>32.96931337144467</v>
+        <v>7.326514082543258</v>
       </c>
       <c r="E24">
-        <v>26.57196707964511</v>
+        <v>5.90488157325447</v>
       </c>
       <c r="F24">
-        <v>6.823415504254617</v>
+        <v>1.516314556501026</v>
       </c>
       <c r="G24">
-        <v>77.0542908549881</v>
+        <v>17.12317574555292</v>
       </c>
       <c r="H24">
-        <v>2.660925620427419</v>
+        <v>0.5913168045394265</v>
       </c>
       <c r="I24">
-        <v>452.5774723762127</v>
+        <v>100.5727716391584</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1063,28 +1063,28 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>262.321056449399</v>
+        <v>58.29356809986643</v>
       </c>
       <c r="C25">
-        <v>4.286638853833925</v>
+        <v>0.9525864119630946</v>
       </c>
       <c r="D25">
-        <v>26.10070641906037</v>
+        <v>5.800156982013412</v>
       </c>
       <c r="E25">
-        <v>43.6539459165598</v>
+        <v>9.700876870346626</v>
       </c>
       <c r="F25">
-        <v>12.25687599838329</v>
+        <v>2.723750221862954</v>
       </c>
       <c r="G25">
-        <v>77.0542908549881</v>
+        <v>17.12317574555292</v>
       </c>
       <c r="H25">
-        <v>7.982776861282256</v>
+        <v>1.773950413618279</v>
       </c>
       <c r="I25">
-        <v>433.6562913535068</v>
+        <v>96.36806474522372</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1092,28 +1092,28 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>221.2621084834062</v>
+        <v>49.16935744075693</v>
       </c>
       <c r="C26">
-        <v>3.312402750689852</v>
+        <v>0.7360895001533004</v>
       </c>
       <c r="D26">
-        <v>32.96931337144467</v>
+        <v>7.326514082543258</v>
       </c>
       <c r="E26">
-        <v>21.8269729582799</v>
+        <v>4.850438435173313</v>
       </c>
       <c r="F26">
-        <v>13.77319055488432</v>
+        <v>3.060709012196516</v>
       </c>
       <c r="G26">
-        <v>183.3360713446269</v>
+        <v>40.74134918769486</v>
       </c>
       <c r="H26">
-        <v>2.660925620427419</v>
+        <v>0.5913168045394265</v>
       </c>
       <c r="I26">
-        <v>479.1409850837592</v>
+        <v>106.4757744630576</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1121,28 +1121,28 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>208.9444240936083</v>
+        <v>46.43209424302406</v>
       </c>
       <c r="C27">
-        <v>5.066027736349185</v>
+        <v>1.12578394141093</v>
       </c>
       <c r="D27">
-        <v>32.96931337144467</v>
+        <v>7.326514082543258</v>
       </c>
       <c r="E27">
-        <v>18.97997648546079</v>
+        <v>4.217772552324621</v>
       </c>
       <c r="F27">
-        <v>15.03678601863518</v>
+        <v>3.34150800414115</v>
       </c>
       <c r="G27">
-        <v>167.393804271181</v>
+        <v>37.19862317137358</v>
       </c>
       <c r="H27">
-        <v>1.773950413618279</v>
+        <v>0.3942112030262843</v>
       </c>
       <c r="I27">
-        <v>450.1642823902974</v>
+        <v>100.0365071978439</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1150,28 +1150,28 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>206.6633714288309</v>
+        <v>45.92519365085131</v>
       </c>
       <c r="C28">
-        <v>2.143319426916963</v>
+        <v>0.4762932059815473</v>
       </c>
       <c r="D28">
-        <v>19.23209946667604</v>
+        <v>4.273799881483566</v>
       </c>
       <c r="E28">
-        <v>22.77597178255295</v>
+        <v>5.061327062789545</v>
       </c>
       <c r="F28">
-        <v>8.087010968005472</v>
+        <v>1.797113548445661</v>
       </c>
       <c r="G28">
-        <v>90.33951341619291</v>
+        <v>20.07544742582067</v>
       </c>
       <c r="H28">
-        <v>2.660925620427419</v>
+        <v>0.5913168045394265</v>
       </c>
       <c r="I28">
-        <v>351.9022121096027</v>
+        <v>78.20049157991173</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1179,28 +1179,28 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>255.4778984550668</v>
+        <v>56.77286632334818</v>
       </c>
       <c r="C29">
-        <v>6.040263839493261</v>
+        <v>1.342280853220724</v>
       </c>
       <c r="D29">
-        <v>61.81746257145878</v>
+        <v>13.73721390476861</v>
       </c>
       <c r="E29">
-        <v>28.46996472819119</v>
+        <v>6.32665882848693</v>
       </c>
       <c r="F29">
-        <v>13.26775236938398</v>
+        <v>2.948389415418662</v>
       </c>
       <c r="G29">
-        <v>135.5092701242894</v>
+        <v>30.11317113873099</v>
       </c>
       <c r="H29">
-        <v>7.095801654473116</v>
+        <v>1.576844812105137</v>
       </c>
       <c r="I29">
-        <v>507.6784137423566</v>
+        <v>112.8174252760792</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1208,28 +1208,28 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>227.6490559447828</v>
+        <v>50.58867909884061</v>
       </c>
       <c r="C30">
-        <v>2.922708309432222</v>
+        <v>0.6494907354293827</v>
       </c>
       <c r="D30">
-        <v>49.45397005716699</v>
+        <v>10.98977112381489</v>
       </c>
       <c r="E30">
-        <v>15.18398118836863</v>
+        <v>3.374218041859697</v>
       </c>
       <c r="F30">
-        <v>14.784066925885</v>
+        <v>3.285348205752224</v>
       </c>
       <c r="G30">
-        <v>66.42611280602424</v>
+        <v>14.76135840133873</v>
       </c>
       <c r="H30">
-        <v>3.547900827236558</v>
+        <v>0.7884224060525685</v>
       </c>
       <c r="I30">
-        <v>379.9677960588965</v>
+        <v>84.43728801308811</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1237,28 +1237,28 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>271.9014776414641</v>
+        <v>60.42255058699198</v>
       </c>
       <c r="C31">
-        <v>5.066027736349185</v>
+        <v>1.12578394141093</v>
       </c>
       <c r="D31">
-        <v>48.08024866669018</v>
+        <v>10.68449970370892</v>
       </c>
       <c r="E31">
-        <v>18.97997648546079</v>
+        <v>4.217772552324621</v>
       </c>
       <c r="F31">
-        <v>12.63595463750855</v>
+        <v>2.807989919446344</v>
       </c>
       <c r="G31">
-        <v>92.99655792843393</v>
+        <v>20.66590176187421</v>
       </c>
       <c r="H31">
-        <v>4.434876034045697</v>
+        <v>0.9855280075657108</v>
       </c>
       <c r="I31">
-        <v>454.0951191299525</v>
+        <v>100.9100264733227</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1266,28 +1266,28 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>315.6976888051896</v>
+        <v>70.15504195670881</v>
       </c>
       <c r="C32">
-        <v>7.209347163266148</v>
+        <v>1.602077147392478</v>
       </c>
       <c r="D32">
-        <v>45.33280588573641</v>
+        <v>10.07395686349698</v>
       </c>
       <c r="E32">
-        <v>22.77597178255295</v>
+        <v>5.061327062789545</v>
       </c>
       <c r="F32">
-        <v>10.36148280275701</v>
+        <v>2.302551733946003</v>
       </c>
       <c r="G32">
-        <v>119.5670030508436</v>
+        <v>26.5704451224097</v>
       </c>
       <c r="H32">
-        <v>4.434876034045697</v>
+        <v>0.9855280075657108</v>
       </c>
       <c r="I32">
-        <v>525.3791755243915</v>
+        <v>116.7509278943092</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1295,25 +1295,25 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>363.1435842325593</v>
+        <v>80.69857427390207</v>
       </c>
       <c r="C33">
-        <v>1.753624985659334</v>
+        <v>0.3896944412576296</v>
       </c>
       <c r="D33">
-        <v>21.97954224762978</v>
+        <v>4.884342721695507</v>
       </c>
       <c r="E33">
-        <v>18.97997648546079</v>
+        <v>4.217772552324621</v>
       </c>
       <c r="F33">
-        <v>6.697055957879531</v>
+        <v>1.488234657306562</v>
       </c>
       <c r="G33">
-        <v>50.48384573257842</v>
+        <v>11.21863238501743</v>
       </c>
       <c r="I33">
-        <v>463.0376296417671</v>
+        <v>102.8972510315038</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1321,28 +1321,28 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>376.8299002212236</v>
+        <v>83.73997782693858</v>
       </c>
       <c r="C34">
-        <v>0.5845416618864444</v>
+        <v>0.1298981470858765</v>
       </c>
       <c r="D34">
-        <v>19.23209946667604</v>
+        <v>4.273799881483566</v>
       </c>
       <c r="E34">
-        <v>33.21495884955637</v>
+        <v>7.381101966568083</v>
       </c>
       <c r="F34">
-        <v>6.823415504254617</v>
+        <v>1.516314556501026</v>
       </c>
       <c r="G34">
-        <v>18.59931158568679</v>
+        <v>4.133180352374842</v>
       </c>
       <c r="H34">
-        <v>1.773950413618279</v>
+        <v>0.3942112030262843</v>
       </c>
       <c r="I34">
-        <v>457.0581777029021</v>
+        <v>101.5684839339783</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1350,28 +1350,28 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>263.6896880482654</v>
+        <v>58.59770845517011</v>
       </c>
       <c r="C35">
-        <v>0.5845416618864444</v>
+        <v>0.1298981470858765</v>
       </c>
       <c r="D35">
-        <v>17.85837807619919</v>
+        <v>3.968528461377599</v>
       </c>
       <c r="E35">
-        <v>25.62296825537207</v>
+        <v>5.693992945638238</v>
       </c>
       <c r="F35">
-        <v>3.538067298502394</v>
+        <v>0.7862371774449763</v>
       </c>
       <c r="G35">
-        <v>55.79793475706035</v>
+        <v>12.39954105712452</v>
       </c>
       <c r="H35">
-        <v>1.773950413618279</v>
+        <v>0.3942112030262843</v>
       </c>
       <c r="I35">
-        <v>368.8655285109041</v>
+        <v>81.97011744686762</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1379,28 +1379,28 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>250.9157931255121</v>
+        <v>55.75906513900268</v>
       </c>
       <c r="C36">
-        <v>1.169083323772889</v>
+        <v>0.2597962941717531</v>
       </c>
       <c r="D36">
-        <v>12.36349251429175</v>
+        <v>2.747442780953723</v>
       </c>
       <c r="E36">
-        <v>31.3169612010103</v>
+        <v>6.959324711335622</v>
       </c>
       <c r="F36">
-        <v>3.032629113002052</v>
+        <v>0.6739175806671228</v>
       </c>
       <c r="G36">
-        <v>23.91340061016872</v>
+        <v>5.314089024481941</v>
       </c>
       <c r="H36">
-        <v>1.773950413618279</v>
+        <v>0.3942112030262843</v>
       </c>
       <c r="I36">
-        <v>324.485310301376</v>
+        <v>72.10784673363914</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1408,28 +1408,28 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>177.009686786725</v>
+        <v>39.33548595260552</v>
       </c>
       <c r="C37">
-        <v>0.3896944412576296</v>
+        <v>0.0865987647239177</v>
       </c>
       <c r="D37">
-        <v>15.11093529524548</v>
+        <v>3.357985621165661</v>
       </c>
       <c r="E37">
-        <v>22.77597178255295</v>
+        <v>5.061327062789545</v>
       </c>
       <c r="F37">
-        <v>4.043505484002736</v>
+        <v>0.8985567742228306</v>
       </c>
       <c r="G37">
-        <v>26.5704451224097</v>
+        <v>5.904543360535486</v>
       </c>
       <c r="H37">
-        <v>1.773950413618279</v>
+        <v>0.3942112030262843</v>
       </c>
       <c r="I37">
-        <v>247.6741893258117</v>
+        <v>55.03870873906925</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1437,25 +1437,25 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>91.24210659109535</v>
+        <v>20.27602368691007</v>
       </c>
       <c r="C38">
-        <v>0.3896944412576296</v>
+        <v>0.0865987647239177</v>
       </c>
       <c r="D38">
-        <v>6.868606952384306</v>
+        <v>1.526357100529846</v>
       </c>
       <c r="E38">
-        <v>16.13298001264167</v>
+        <v>3.585106669475927</v>
       </c>
       <c r="F38">
-        <v>1.769033649251197</v>
+        <v>0.3931185887224882</v>
       </c>
       <c r="G38">
-        <v>13.28522256120485</v>
+        <v>2.952271680267743</v>
       </c>
       <c r="I38">
-        <v>129.687644207835</v>
+        <v>28.81947649062998</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1463,25 +1463,25 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>78.9244222012974</v>
+        <v>17.5387604891772</v>
       </c>
       <c r="C39">
-        <v>2.143319426916963</v>
+        <v>0.4762932059815473</v>
       </c>
       <c r="D39">
-        <v>12.36349251429175</v>
+        <v>2.747442780953723</v>
       </c>
       <c r="E39">
-        <v>3.795995297092157</v>
+        <v>0.8435545104649241</v>
       </c>
       <c r="F39">
-        <v>2.77991002025188</v>
+        <v>0.6177577822781958</v>
       </c>
       <c r="G39">
-        <v>10.62817804896388</v>
+        <v>2.361817344214195</v>
       </c>
       <c r="I39">
-        <v>110.635317508814</v>
+        <v>24.58562611306979</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1489,19 +1489,19 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>60.67600088307837</v>
+        <v>13.4835557517952</v>
       </c>
       <c r="C40">
-        <v>2.143319426916963</v>
+        <v>0.4762932059815473</v>
       </c>
       <c r="F40">
-        <v>2.148112288376455</v>
+        <v>0.4773582863058787</v>
       </c>
       <c r="G40">
-        <v>18.59931158568679</v>
+        <v>4.133180352374842</v>
       </c>
       <c r="I40">
-        <v>83.56674418405858</v>
+        <v>18.57038759645746</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1509,22 +1509,22 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>37.40926370234907</v>
+        <v>8.313169711633126</v>
       </c>
       <c r="C41">
-        <v>0.1948472206288148</v>
+        <v>0.04329938236195885</v>
       </c>
       <c r="D41">
-        <v>4.121164171430584</v>
+        <v>0.9158142603179072</v>
       </c>
       <c r="F41">
-        <v>1.13723591737577</v>
+        <v>0.252719092750171</v>
       </c>
       <c r="G41">
-        <v>7.971133536722908</v>
+        <v>1.771363008160646</v>
       </c>
       <c r="I41">
-        <v>50.83364454850715</v>
+        <v>11.29636545522381</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1532,22 +1532,22 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>31.93473730688335</v>
+        <v>7.096608290418523</v>
       </c>
       <c r="C42">
-        <v>0.1948472206288148</v>
+        <v>0.04329938236195885</v>
       </c>
       <c r="D42">
-        <v>2.747442780953723</v>
+        <v>0.6105428402119384</v>
       </c>
       <c r="F42">
-        <v>0.6317977318754274</v>
+        <v>0.1403994959723173</v>
       </c>
       <c r="G42">
-        <v>10.62817804896388</v>
+        <v>2.361817344214195</v>
       </c>
       <c r="I42">
-        <v>46.1370030893052</v>
+        <v>10.25266735317893</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1555,25 +1555,25 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>23.2667371807293</v>
+        <v>5.170386040162068</v>
       </c>
       <c r="C43">
-        <v>0.5845416618864444</v>
+        <v>0.1298981470858765</v>
       </c>
       <c r="D43">
-        <v>2.747442780953723</v>
+        <v>0.6105428402119384</v>
       </c>
       <c r="E43">
-        <v>1.897997648546079</v>
+        <v>0.4217772552324621</v>
       </c>
       <c r="F43">
-        <v>1.13723591737577</v>
+        <v>0.252719092750171</v>
       </c>
       <c r="G43">
-        <v>15.94226707344582</v>
+        <v>3.542726016321291</v>
       </c>
       <c r="I43">
-        <v>45.57622226293713</v>
+        <v>10.12804939176381</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1581,19 +1581,19 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>41.51515849894835</v>
+        <v>9.225590777544081</v>
       </c>
       <c r="C44">
-        <v>0.3896944412576296</v>
+        <v>0.0865987647239177</v>
       </c>
       <c r="F44">
-        <v>1.516314556501026</v>
+        <v>0.3369587903335614</v>
       </c>
       <c r="G44">
-        <v>29.22748963465066</v>
+        <v>6.494997696589037</v>
       </c>
       <c r="I44">
-        <v>72.64865713135767</v>
+        <v>16.1441460291906</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1601,28 +1601,28 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>142.3376862821087</v>
+        <v>31.6305969515797</v>
       </c>
       <c r="C45">
-        <v>0.5845416618864444</v>
+        <v>0.1298981470858765</v>
       </c>
       <c r="D45">
-        <v>16.48465668572234</v>
+        <v>3.663257041271629</v>
       </c>
       <c r="E45">
-        <v>4.744994121365197</v>
+        <v>1.054443138081155</v>
       </c>
       <c r="F45">
-        <v>6.317977318754276</v>
+        <v>1.403994959723172</v>
       </c>
       <c r="G45">
-        <v>23.91340061016872</v>
+        <v>5.314089024481941</v>
       </c>
       <c r="H45">
-        <v>3.547900827236558</v>
+        <v>0.7884224060525685</v>
       </c>
       <c r="I45">
-        <v>197.9311575072423</v>
+        <v>43.98470166827604</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1630,28 +1630,28 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>250.003372059601</v>
+        <v>55.55630490213359</v>
       </c>
       <c r="C46">
-        <v>0.1948472206288148</v>
+        <v>0.04329938236195885</v>
       </c>
       <c r="D46">
-        <v>26.10070641906037</v>
+        <v>5.800156982013412</v>
       </c>
       <c r="E46">
-        <v>33.21495884955637</v>
+        <v>7.381101966568083</v>
       </c>
       <c r="F46">
-        <v>8.466089607130728</v>
+        <v>1.881353246029051</v>
       </c>
       <c r="G46">
-        <v>108.9388250018798</v>
+        <v>24.2086277781955</v>
       </c>
       <c r="H46">
-        <v>0.8869752068091395</v>
+        <v>0.1971056015131421</v>
       </c>
       <c r="I46">
-        <v>427.8057743646663</v>
+        <v>95.06794985881474</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1659,28 +1659,28 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>318.4349520029226</v>
+        <v>70.76332266731616</v>
       </c>
       <c r="C47">
-        <v>0.5845416618864444</v>
+        <v>0.1298981470858765</v>
       </c>
       <c r="D47">
-        <v>23.35326363810664</v>
+        <v>5.189614141801474</v>
       </c>
       <c r="E47">
-        <v>28.46996472819119</v>
+        <v>6.32665882848693</v>
       </c>
       <c r="F47">
-        <v>4.422584123127993</v>
+        <v>0.982796471806221</v>
       </c>
       <c r="G47">
-        <v>47.82680122033744</v>
+        <v>10.62817804896388</v>
       </c>
       <c r="H47">
-        <v>0.8869752068091395</v>
+        <v>0.1971056015131421</v>
       </c>
       <c r="I47">
-        <v>423.9790825813814</v>
+        <v>94.2175739069737</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1688,28 +1688,28 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>291.062320025594</v>
+        <v>64.6805155612431</v>
       </c>
       <c r="C48">
-        <v>3.312402750689852</v>
+        <v>0.7360895001533004</v>
       </c>
       <c r="D48">
-        <v>37.09047754287525</v>
+        <v>8.242328342861168</v>
       </c>
       <c r="E48">
-        <v>29.41896355246422</v>
+        <v>6.537547456103161</v>
       </c>
       <c r="F48">
-        <v>7.076134597004788</v>
+        <v>1.572474354889953</v>
       </c>
       <c r="G48">
-        <v>69.08315731826519</v>
+        <v>15.35181273739227</v>
       </c>
       <c r="H48">
-        <v>3.547900827236558</v>
+        <v>0.7884224060525685</v>
       </c>
       <c r="I48">
-        <v>440.5913566141298</v>
+        <v>97.90919035869551</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1717,28 +1717,28 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>262.321056449399</v>
+        <v>58.29356809986643</v>
       </c>
       <c r="C49">
-        <v>4.286638853833925</v>
+        <v>0.9525864119630946</v>
       </c>
       <c r="D49">
-        <v>26.10070641906037</v>
+        <v>5.800156982013412</v>
       </c>
       <c r="E49">
-        <v>43.6539459165598</v>
+        <v>9.700876870346626</v>
       </c>
       <c r="F49">
-        <v>12.25687599838329</v>
+        <v>2.723750221862954</v>
       </c>
       <c r="G49">
-        <v>77.0542908549881</v>
+        <v>17.12317574555292</v>
       </c>
       <c r="H49">
-        <v>7.982776861282256</v>
+        <v>1.773950413618279</v>
       </c>
       <c r="I49">
-        <v>433.6562913535068</v>
+        <v>96.36806474522372</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_W_겨울_배출량/경기동로_W_겨울_배출량_CO.xlsx
+++ b/output/경기동로_W_겨울_배출량/경기동로_W_겨울_배출량_CO.xlsx
@@ -438,28 +438,28 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>47.75003578267323</v>
+        <v>193.775826054055</v>
       </c>
       <c r="C2">
-        <v>0.8659876472391771</v>
+        <v>3.896944412576297</v>
       </c>
       <c r="D2">
-        <v>8.242328342861168</v>
+        <v>37.06703472249155</v>
       </c>
       <c r="E2">
-        <v>4.850438435173313</v>
+        <v>21.8269729582799</v>
       </c>
       <c r="F2">
-        <v>2.864149717835271</v>
+        <v>12.84568991328378</v>
       </c>
       <c r="G2">
-        <v>34.24635149110585</v>
+        <v>154.0803042191003</v>
       </c>
       <c r="H2">
-        <v>0.5913168045394265</v>
+        <v>2.660925620427419</v>
       </c>
       <c r="I2">
-        <v>99.41060822142744</v>
+        <v>426.1536979002142</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>47.85141590110777</v>
+        <v>194.1872396974818</v>
       </c>
       <c r="C3">
-        <v>0.9958857943250535</v>
+        <v>4.481486074462741</v>
       </c>
       <c r="D3">
-        <v>8.242328342861168</v>
+        <v>37.06703472249155</v>
       </c>
       <c r="E3">
-        <v>5.061327062789545</v>
+        <v>22.77597178255295</v>
       </c>
       <c r="F3">
-        <v>2.948389415418662</v>
+        <v>13.22350432249801</v>
       </c>
       <c r="G3">
-        <v>28.93226246662389</v>
+        <v>130.1712914954468</v>
       </c>
       <c r="H3">
-        <v>0.5913168045394265</v>
+        <v>2.660925620427419</v>
       </c>
       <c r="I3">
-        <v>94.62292578766552</v>
+        <v>404.5674537153613</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>48.86521708545324</v>
+        <v>198.3013761317505</v>
       </c>
       <c r="C4">
-        <v>0.6061913530674239</v>
+        <v>2.727861088803408</v>
       </c>
       <c r="D4">
-        <v>5.494885561907446</v>
+        <v>24.71135648166103</v>
       </c>
       <c r="E4">
-        <v>4.006883924708389</v>
+        <v>18.03097766118774</v>
       </c>
       <c r="F4">
-        <v>2.134072338779222</v>
+        <v>9.571298366760457</v>
       </c>
       <c r="G4">
-        <v>19.48499308976712</v>
+        <v>87.66637998672947</v>
       </c>
       <c r="H4">
-        <v>0.3942112030262843</v>
+        <v>1.773950413618279</v>
       </c>
       <c r="I4">
-        <v>80.98645455670912</v>
+        <v>342.7832001305109</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>56.67148620491364</v>
+        <v>229.9802266756194</v>
       </c>
       <c r="C5">
-        <v>1.342280853220724</v>
+        <v>6.040263839493261</v>
       </c>
       <c r="D5">
-        <v>10.98977112381489</v>
+        <v>49.42271296332206</v>
       </c>
       <c r="E5">
-        <v>3.795995297092157</v>
+        <v>17.08197883691471</v>
       </c>
       <c r="F5">
-        <v>3.088788911390978</v>
+        <v>13.85319500452172</v>
       </c>
       <c r="G5">
-        <v>21.8468104339813</v>
+        <v>98.29260786390881</v>
       </c>
       <c r="H5">
-        <v>0.9855280075657108</v>
+        <v>4.434876034045697</v>
       </c>
       <c r="I5">
-        <v>98.7206608319794</v>
+        <v>419.1058612178256</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>59.51012952108105</v>
+        <v>241.4998086915717</v>
       </c>
       <c r="C6">
-        <v>0.8226882648772181</v>
+        <v>3.702097191947482</v>
       </c>
       <c r="D6">
-        <v>10.37922828360295</v>
+        <v>46.67700668758195</v>
       </c>
       <c r="E6">
-        <v>4.006883924708389</v>
+        <v>18.03097766118774</v>
       </c>
       <c r="F6">
-        <v>3.229188407363296</v>
+        <v>14.48288568654544</v>
       </c>
       <c r="G6">
-        <v>20.07544742582067</v>
+        <v>90.32293695602432</v>
       </c>
       <c r="H6">
-        <v>0.5913168045394265</v>
+        <v>2.660925620427419</v>
       </c>
       <c r="I6">
-        <v>98.614882631993</v>
+        <v>417.376638495286</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>58.69908857360466</v>
+        <v>238.2084995441567</v>
       </c>
       <c r="C7">
-        <v>1.688675912116395</v>
+        <v>7.599041604523776</v>
       </c>
       <c r="D7">
-        <v>7.937056922755198</v>
+        <v>35.6941815846215</v>
       </c>
       <c r="E7">
-        <v>5.061327062789545</v>
+        <v>22.77597178255295</v>
       </c>
       <c r="F7">
-        <v>3.088788911390978</v>
+        <v>13.85319500452172</v>
       </c>
       <c r="G7">
-        <v>19.48499308976712</v>
+        <v>87.66637998672947</v>
       </c>
       <c r="H7">
-        <v>0.5913168045394265</v>
+        <v>2.660925620427419</v>
       </c>
       <c r="I7">
-        <v>96.55124727696332</v>
+        <v>408.4581951275335</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>68.63434018019061</v>
+        <v>278.5270365999897</v>
       </c>
       <c r="C8">
-        <v>1.905172823926189</v>
+        <v>8.573277707667851</v>
       </c>
       <c r="D8">
-        <v>10.98977112381489</v>
+        <v>49.42271296332206</v>
       </c>
       <c r="E8">
-        <v>5.272215690405778</v>
+        <v>23.72497060682599</v>
       </c>
       <c r="F8">
-        <v>2.302551733946003</v>
+        <v>10.32692718518893</v>
       </c>
       <c r="G8">
-        <v>14.76135840133873</v>
+        <v>66.41392423237082</v>
       </c>
       <c r="H8">
-        <v>1.379739210591995</v>
+        <v>6.208826447663977</v>
       </c>
       <c r="I8">
-        <v>105.2451491642142</v>
+        <v>443.1976757430294</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,25 +641,25 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>79.48201285268745</v>
+        <v>322.5482964466645</v>
       </c>
       <c r="C9">
-        <v>0.5195925883435062</v>
+        <v>2.338166647545778</v>
       </c>
       <c r="D9">
-        <v>6.715971242331322</v>
+        <v>30.20276903314127</v>
       </c>
       <c r="E9">
-        <v>4.639549807557082</v>
+        <v>20.87797413400687</v>
       </c>
       <c r="F9">
-        <v>1.712873850862271</v>
+        <v>7.682226320689322</v>
       </c>
       <c r="G9">
-        <v>12.39954105712452</v>
+        <v>55.78769635519149</v>
       </c>
       <c r="I9">
-        <v>105.4695413989061</v>
+        <v>439.4371289372393</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -667,28 +667,28 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>75.93370870747819</v>
+        <v>308.1488189267245</v>
       </c>
       <c r="C10">
-        <v>0.3030956765337119</v>
+        <v>1.363930544401704</v>
       </c>
       <c r="D10">
-        <v>6.41069982222535</v>
+        <v>28.8299158952712</v>
       </c>
       <c r="E10">
-        <v>7.591990594184314</v>
+        <v>34.16395767382942</v>
       </c>
       <c r="F10">
-        <v>1.375915060528709</v>
+        <v>6.170968683832406</v>
       </c>
       <c r="G10">
-        <v>6.494997696589037</v>
+        <v>29.22212666224316</v>
       </c>
       <c r="H10">
-        <v>0.1971056015131421</v>
+        <v>0.8869752068091395</v>
       </c>
       <c r="I10">
-        <v>98.30751315905246</v>
+        <v>408.7866935931115</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -696,28 +696,28 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>54.84664407309173</v>
+        <v>222.5747810939357</v>
       </c>
       <c r="C11">
-        <v>0.2597962941717531</v>
+        <v>1.169083323772889</v>
       </c>
       <c r="D11">
-        <v>5.189614141801474</v>
+        <v>23.33850334379098</v>
       </c>
       <c r="E11">
-        <v>6.32665882848693</v>
+        <v>28.46996472819119</v>
       </c>
       <c r="F11">
-        <v>0.6177577822781958</v>
+        <v>2.770639000904346</v>
       </c>
       <c r="G11">
-        <v>10.03772371291033</v>
+        <v>45.16146847801216</v>
       </c>
       <c r="H11">
-        <v>0.1971056015131421</v>
+        <v>0.8869752068091395</v>
       </c>
       <c r="I11">
-        <v>77.47530043425355</v>
+        <v>324.3714151754165</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -725,28 +725,28 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>49.27073755919147</v>
+        <v>199.947030705458</v>
       </c>
       <c r="C12">
-        <v>0.7793888825152593</v>
+        <v>3.507249971318668</v>
       </c>
       <c r="D12">
-        <v>4.579071301589539</v>
+        <v>20.59279706805085</v>
       </c>
       <c r="E12">
-        <v>5.483104318022007</v>
+        <v>24.67396943109902</v>
       </c>
       <c r="F12">
-        <v>0.5896778830837326</v>
+        <v>2.644700864499602</v>
       </c>
       <c r="G12">
-        <v>5.314089024481941</v>
+        <v>23.9090127236535</v>
       </c>
       <c r="H12">
-        <v>0.1971056015131421</v>
+        <v>0.8869752068091395</v>
       </c>
       <c r="I12">
-        <v>66.21317457039709</v>
+        <v>276.1617359708888</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -754,28 +754,28 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>35.88856192583084</v>
+        <v>145.6404297731114</v>
       </c>
       <c r="C13">
-        <v>0.1731975294478354</v>
+        <v>0.7793888825152593</v>
       </c>
       <c r="D13">
-        <v>3.968528461377599</v>
+        <v>17.84709079231075</v>
       </c>
       <c r="E13">
-        <v>5.483104318022007</v>
+        <v>24.67396943109902</v>
       </c>
       <c r="F13">
-        <v>0.4492783871114153</v>
+        <v>2.015010182475888</v>
       </c>
       <c r="G13">
-        <v>4.72363468842839</v>
+        <v>21.25245575435867</v>
       </c>
       <c r="H13">
-        <v>0.1971056015131421</v>
+        <v>0.8869752068091395</v>
       </c>
       <c r="I13">
-        <v>50.88341091173123</v>
+        <v>213.0953200226801</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,25 +783,25 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>18.45118155508816</v>
+        <v>74.87728310368999</v>
       </c>
       <c r="C14">
-        <v>0.0865987647239177</v>
+        <v>0.3896944412576296</v>
       </c>
       <c r="D14">
-        <v>1.526357100529846</v>
+        <v>6.864265689350288</v>
       </c>
       <c r="E14">
-        <v>3.585106669475927</v>
+        <v>16.13298001264167</v>
       </c>
       <c r="F14">
-        <v>0.3369587903335614</v>
+        <v>1.511257636856916</v>
       </c>
       <c r="G14">
-        <v>1.771363008160646</v>
+        <v>7.969670907884498</v>
       </c>
       <c r="I14">
-        <v>25.75756588831206</v>
+        <v>107.745151791681</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -809,25 +809,25 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>15.00425752831345</v>
+        <v>60.88921922717647</v>
       </c>
       <c r="C15">
-        <v>0.3030956765337119</v>
+        <v>1.363930544401704</v>
       </c>
       <c r="D15">
-        <v>2.442171360847754</v>
+        <v>10.98282510296046</v>
       </c>
       <c r="E15">
-        <v>1.265331765697386</v>
+        <v>5.693992945638238</v>
       </c>
       <c r="F15">
-        <v>0.8423969758339031</v>
+        <v>3.778144092142289</v>
       </c>
       <c r="G15">
-        <v>2.952271680267743</v>
+        <v>13.28278484647416</v>
       </c>
       <c r="I15">
-        <v>22.80952498749395</v>
+        <v>95.99089675879333</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -835,19 +835,19 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>12.26699433058059</v>
+        <v>49.78105085465105</v>
       </c>
       <c r="C16">
-        <v>0.2597962941717531</v>
+        <v>1.169083323772889</v>
       </c>
       <c r="F16">
-        <v>0.3650386895280248</v>
+        <v>1.637195773261658</v>
       </c>
       <c r="G16">
-        <v>2.952271680267743</v>
+        <v>13.28278484647416</v>
       </c>
       <c r="I16">
-        <v>15.84410099454811</v>
+        <v>65.87011479815976</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -855,22 +855,22 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>6.691087816680323</v>
+        <v>27.1533004661733</v>
       </c>
       <c r="C17">
-        <v>0.04329938236195885</v>
+        <v>0.1948472206288148</v>
       </c>
       <c r="D17">
-        <v>0.9158142603179072</v>
+        <v>4.118559413610172</v>
       </c>
       <c r="F17">
-        <v>0.252719092750171</v>
+        <v>1.133443227642687</v>
       </c>
       <c r="G17">
-        <v>1.180908672107098</v>
+        <v>5.313113938589668</v>
       </c>
       <c r="I17">
-        <v>9.083829224217457</v>
+        <v>37.91326426664465</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -878,22 +878,22 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>5.271766158596617</v>
+        <v>21.39350945819715</v>
       </c>
       <c r="C18">
-        <v>0.04329938236195885</v>
+        <v>0.1948472206288148</v>
       </c>
       <c r="D18">
-        <v>0.3052714201059692</v>
+        <v>1.372853137870058</v>
       </c>
       <c r="F18">
-        <v>0.1403994959723173</v>
+        <v>0.6296906820237147</v>
       </c>
       <c r="G18">
-        <v>2.361817344214195</v>
+        <v>10.62622787717934</v>
       </c>
       <c r="I18">
-        <v>8.122553801251058</v>
+        <v>34.21712837589907</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -901,25 +901,25 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>5.069005921727516</v>
+        <v>20.57068217134342</v>
       </c>
       <c r="C19">
-        <v>0.2164969118097943</v>
+        <v>0.9742361031440743</v>
       </c>
       <c r="D19">
-        <v>0.6105428402119384</v>
+        <v>2.745706275740115</v>
       </c>
       <c r="E19">
-        <v>0.8435545104649241</v>
+        <v>3.795995297092157</v>
       </c>
       <c r="F19">
-        <v>0.3369587903335614</v>
+        <v>1.511257636856916</v>
       </c>
       <c r="G19">
-        <v>2.361817344214195</v>
+        <v>10.62622787717934</v>
       </c>
       <c r="I19">
-        <v>9.438376318761929</v>
+        <v>40.22410536135602</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -927,19 +927,19 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>9.326970895978629</v>
+        <v>37.85005519527186</v>
       </c>
       <c r="C20">
-        <v>0.0865987647239177</v>
+        <v>0.3896944412576296</v>
       </c>
       <c r="F20">
-        <v>0.3088788911390979</v>
+        <v>1.385319500452173</v>
       </c>
       <c r="G20">
-        <v>5.314089024481941</v>
+        <v>23.9090127236535</v>
       </c>
       <c r="I20">
-        <v>15.03653757632359</v>
+        <v>63.53408186063517</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -947,28 +947,28 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>31.4278367147106</v>
+        <v>127.5382294623292</v>
       </c>
       <c r="C21">
-        <v>0.1298981470858765</v>
+        <v>0.5845416618864444</v>
       </c>
       <c r="D21">
-        <v>6.715971242331322</v>
+        <v>30.20276903314127</v>
       </c>
       <c r="E21">
-        <v>1.265331765697386</v>
+        <v>5.693992945638238</v>
       </c>
       <c r="F21">
-        <v>1.038956270195147</v>
+        <v>4.659711046975489</v>
       </c>
       <c r="G21">
-        <v>5.314089024481941</v>
+        <v>23.9090127236535</v>
       </c>
       <c r="H21">
-        <v>0.3942112030262843</v>
+        <v>1.773950413618279</v>
       </c>
       <c r="I21">
-        <v>46.28629436752857</v>
+        <v>194.3622072872424</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -976,28 +976,28 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>53.83284288874625</v>
+        <v>218.460644659667</v>
       </c>
       <c r="C22">
-        <v>0.1298981470858765</v>
+        <v>0.5845416618864444</v>
       </c>
       <c r="D22">
-        <v>8.852871183073104</v>
+        <v>39.81274099823165</v>
       </c>
       <c r="E22">
-        <v>7.381101966568083</v>
+        <v>33.21495884955637</v>
       </c>
       <c r="F22">
-        <v>1.853273346834588</v>
+        <v>8.311917002713038</v>
       </c>
       <c r="G22">
-        <v>18.30408441766</v>
+        <v>82.35326604813982</v>
       </c>
       <c r="H22">
-        <v>0.1971056015131421</v>
+        <v>0.8869752068091395</v>
       </c>
       <c r="I22">
-        <v>90.55117755148105</v>
+        <v>383.6250444270034</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1005,28 +1005,28 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>69.54676124610155</v>
+        <v>282.2297593908315</v>
       </c>
       <c r="C23">
-        <v>0.1298981470858765</v>
+        <v>0.5845416618864444</v>
       </c>
       <c r="D23">
-        <v>4.273799881483566</v>
+        <v>19.21994393018079</v>
       </c>
       <c r="E23">
-        <v>6.748436083719393</v>
+        <v>30.36796237673726</v>
       </c>
       <c r="F23">
-        <v>1.095116068584075</v>
+        <v>4.911587319784976</v>
       </c>
       <c r="G23">
-        <v>9.447269376856781</v>
+        <v>42.50491150871734</v>
       </c>
       <c r="H23">
-        <v>0.3942112030262843</v>
+        <v>1.773950413618279</v>
       </c>
       <c r="I23">
-        <v>91.63549200685755</v>
+        <v>381.5926566017565</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1034,28 +1034,28 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>67.41777875897598</v>
+        <v>273.5900728788673</v>
       </c>
       <c r="C24">
-        <v>0.6927901177913416</v>
+        <v>3.117555530061037</v>
       </c>
       <c r="D24">
-        <v>7.326514082543258</v>
+        <v>32.94847530888138</v>
       </c>
       <c r="E24">
-        <v>5.90488157325447</v>
+        <v>26.57196707964511</v>
       </c>
       <c r="F24">
-        <v>1.516314556501026</v>
+        <v>6.800659365856117</v>
       </c>
       <c r="G24">
-        <v>17.12317574555292</v>
+        <v>77.04015210955016</v>
       </c>
       <c r="H24">
-        <v>0.5913168045394265</v>
+        <v>2.660925620427419</v>
       </c>
       <c r="I24">
-        <v>100.5727716391584</v>
+        <v>422.7298078932885</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1063,28 +1063,28 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>58.29356809986643</v>
+        <v>236.5628449704492</v>
       </c>
       <c r="C25">
-        <v>0.9525864119630946</v>
+        <v>4.286638853833925</v>
       </c>
       <c r="D25">
-        <v>5.800156982013412</v>
+        <v>26.08420961953109</v>
       </c>
       <c r="E25">
-        <v>9.700876870346626</v>
+        <v>43.6539459165598</v>
       </c>
       <c r="F25">
-        <v>2.723750221862954</v>
+        <v>12.21599923126007</v>
       </c>
       <c r="G25">
-        <v>17.12317574555292</v>
+        <v>77.04015210955016</v>
       </c>
       <c r="H25">
-        <v>1.773950413618279</v>
+        <v>7.982776861282256</v>
       </c>
       <c r="I25">
-        <v>96.36806474522372</v>
+        <v>407.8265675624664</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1092,28 +1092,28 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>49.16935744075693</v>
+        <v>199.5356170620311</v>
       </c>
       <c r="C26">
-        <v>0.7360895001533004</v>
+        <v>3.312402750689852</v>
       </c>
       <c r="D26">
-        <v>7.326514082543258</v>
+        <v>32.94847530888138</v>
       </c>
       <c r="E26">
-        <v>4.850438435173313</v>
+        <v>21.8269729582799</v>
       </c>
       <c r="F26">
-        <v>3.060709012196516</v>
+        <v>13.72725686811699</v>
       </c>
       <c r="G26">
-        <v>40.74134918769486</v>
+        <v>183.3024308813434</v>
       </c>
       <c r="H26">
-        <v>0.5913168045394265</v>
+        <v>2.660925620427419</v>
       </c>
       <c r="I26">
-        <v>106.4757744630576</v>
+        <v>457.31408144977</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1121,28 +1121,28 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>46.43209424302406</v>
+        <v>188.4274486895056</v>
       </c>
       <c r="C27">
-        <v>1.12578394141093</v>
+        <v>5.066027736349185</v>
       </c>
       <c r="D27">
-        <v>7.326514082543258</v>
+        <v>32.94847530888138</v>
       </c>
       <c r="E27">
-        <v>4.217772552324621</v>
+        <v>18.97997648546079</v>
       </c>
       <c r="F27">
-        <v>3.34150800414115</v>
+        <v>14.98663823216441</v>
       </c>
       <c r="G27">
-        <v>37.19862317137358</v>
+        <v>167.3630890655745</v>
       </c>
       <c r="H27">
-        <v>0.3942112030262843</v>
+        <v>1.773950413618279</v>
       </c>
       <c r="I27">
-        <v>100.0365071978439</v>
+        <v>429.5456059315541</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1150,28 +1150,28 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>45.92519365085131</v>
+        <v>186.3703804723713</v>
       </c>
       <c r="C28">
-        <v>0.4762932059815473</v>
+        <v>2.143319426916963</v>
       </c>
       <c r="D28">
-        <v>4.273799881483566</v>
+        <v>19.21994393018079</v>
       </c>
       <c r="E28">
-        <v>5.061327062789545</v>
+        <v>22.77597178255295</v>
       </c>
       <c r="F28">
-        <v>1.797113548445661</v>
+        <v>8.060040729903553</v>
       </c>
       <c r="G28">
-        <v>20.07544742582067</v>
+        <v>90.32293695602432</v>
       </c>
       <c r="H28">
-        <v>0.5913168045394265</v>
+        <v>2.660925620427419</v>
       </c>
       <c r="I28">
-        <v>78.20049157991173</v>
+        <v>331.5535189183773</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1179,28 +1179,28 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>56.77286632334818</v>
+        <v>230.3916403190461</v>
       </c>
       <c r="C29">
-        <v>1.342280853220724</v>
+        <v>6.040263839493261</v>
       </c>
       <c r="D29">
-        <v>13.73721390476861</v>
+        <v>61.7783912041526</v>
       </c>
       <c r="E29">
-        <v>6.32665882848693</v>
+        <v>28.46996472819119</v>
       </c>
       <c r="F29">
-        <v>2.948389415418662</v>
+        <v>13.22350432249801</v>
       </c>
       <c r="G29">
-        <v>30.11317113873099</v>
+        <v>135.4844054340365</v>
       </c>
       <c r="H29">
-        <v>1.576844812105137</v>
+        <v>7.095801654473116</v>
       </c>
       <c r="I29">
-        <v>112.8174252760792</v>
+        <v>482.4839715018908</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1208,28 +1208,28 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>50.58867909884061</v>
+        <v>205.2954080700072</v>
       </c>
       <c r="C30">
-        <v>0.6494907354293827</v>
+        <v>2.922708309432222</v>
       </c>
       <c r="D30">
-        <v>10.98977112381489</v>
+        <v>49.42271296332206</v>
       </c>
       <c r="E30">
-        <v>3.374218041859697</v>
+        <v>15.18398118836863</v>
       </c>
       <c r="F30">
-        <v>3.285348205752224</v>
+        <v>14.73476195935492</v>
       </c>
       <c r="G30">
-        <v>14.76135840133873</v>
+        <v>66.41392423237082</v>
       </c>
       <c r="H30">
-        <v>0.7884224060525685</v>
+        <v>3.547900827236558</v>
       </c>
       <c r="I30">
-        <v>84.43728801308811</v>
+        <v>357.5213975500924</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1237,28 +1237,28 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>60.42255058699198</v>
+        <v>245.2025314824136</v>
       </c>
       <c r="C31">
-        <v>1.12578394141093</v>
+        <v>5.066027736349185</v>
       </c>
       <c r="D31">
-        <v>10.68449970370892</v>
+        <v>48.049859825452</v>
       </c>
       <c r="E31">
-        <v>4.217772552324621</v>
+        <v>18.97997648546079</v>
       </c>
       <c r="F31">
-        <v>2.807989919446344</v>
+        <v>12.59381364047429</v>
       </c>
       <c r="G31">
-        <v>20.66590176187421</v>
+        <v>92.97949392531916</v>
       </c>
       <c r="H31">
-        <v>0.9855280075657108</v>
+        <v>4.434876034045697</v>
       </c>
       <c r="I31">
-        <v>100.9100264733227</v>
+        <v>427.3065791295147</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1266,28 +1266,28 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>70.15504195670881</v>
+        <v>284.6982412513926</v>
       </c>
       <c r="C32">
-        <v>1.602077147392478</v>
+        <v>7.209347163266148</v>
       </c>
       <c r="D32">
-        <v>10.07395686349698</v>
+        <v>45.30415354971189</v>
       </c>
       <c r="E32">
-        <v>5.061327062789545</v>
+        <v>22.77597178255295</v>
       </c>
       <c r="F32">
-        <v>2.302551733946003</v>
+        <v>10.32692718518893</v>
       </c>
       <c r="G32">
-        <v>26.5704451224097</v>
+        <v>119.5450636182675</v>
       </c>
       <c r="H32">
-        <v>0.9855280075657108</v>
+        <v>4.434876034045697</v>
       </c>
       <c r="I32">
-        <v>116.7509278943092</v>
+        <v>494.2945805844258</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1295,25 +1295,25 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>80.69857427390207</v>
+        <v>327.485260167787</v>
       </c>
       <c r="C33">
-        <v>0.3896944412576296</v>
+        <v>1.753624985659334</v>
       </c>
       <c r="D33">
-        <v>4.884342721695507</v>
+        <v>21.96565020592092</v>
       </c>
       <c r="E33">
-        <v>4.217772552324621</v>
+        <v>18.97997648546079</v>
       </c>
       <c r="F33">
-        <v>1.488234657306562</v>
+        <v>6.674721229451377</v>
       </c>
       <c r="G33">
-        <v>11.21863238501743</v>
+        <v>50.47458241660186</v>
       </c>
       <c r="I33">
-        <v>102.8972510315038</v>
+        <v>427.3338154908812</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1321,28 +1321,28 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>83.73997782693858</v>
+        <v>339.8276694705932</v>
       </c>
       <c r="C34">
-        <v>0.1298981470858765</v>
+        <v>0.5845416618864444</v>
       </c>
       <c r="D34">
-        <v>4.273799881483566</v>
+        <v>19.21994393018079</v>
       </c>
       <c r="E34">
-        <v>7.381101966568083</v>
+        <v>33.21495884955637</v>
       </c>
       <c r="F34">
-        <v>1.516314556501026</v>
+        <v>6.800659365856117</v>
       </c>
       <c r="G34">
-        <v>4.133180352374842</v>
+        <v>18.59589878506383</v>
       </c>
       <c r="H34">
-        <v>0.3942112030262843</v>
+        <v>1.773950413618279</v>
       </c>
       <c r="I34">
-        <v>101.5684839339783</v>
+        <v>420.0176224767549</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1350,28 +1350,28 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>58.59770845517011</v>
+        <v>237.7970859007298</v>
       </c>
       <c r="C35">
-        <v>0.1298981470858765</v>
+        <v>0.5845416618864444</v>
       </c>
       <c r="D35">
-        <v>3.968528461377599</v>
+        <v>17.84709079231075</v>
       </c>
       <c r="E35">
-        <v>5.693992945638238</v>
+        <v>25.62296825537207</v>
       </c>
       <c r="F35">
-        <v>0.7862371774449763</v>
+        <v>3.526267819332805</v>
       </c>
       <c r="G35">
-        <v>12.39954105712452</v>
+        <v>55.78769635519149</v>
       </c>
       <c r="H35">
-        <v>0.3942112030262843</v>
+        <v>1.773950413618279</v>
       </c>
       <c r="I35">
-        <v>81.97011744686762</v>
+        <v>342.9396011984416</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1379,28 +1379,28 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>55.75906513900268</v>
+        <v>226.2775038847776</v>
       </c>
       <c r="C36">
-        <v>0.2597962941717531</v>
+        <v>1.169083323772889</v>
       </c>
       <c r="D36">
-        <v>2.747442780953723</v>
+        <v>12.35567824083052</v>
       </c>
       <c r="E36">
-        <v>6.959324711335622</v>
+        <v>31.3169612010103</v>
       </c>
       <c r="F36">
-        <v>0.6739175806671228</v>
+        <v>3.022515273713831</v>
       </c>
       <c r="G36">
-        <v>5.314089024481941</v>
+        <v>23.9090127236535</v>
       </c>
       <c r="H36">
-        <v>0.3942112030262843</v>
+        <v>1.773950413618279</v>
       </c>
       <c r="I36">
-        <v>72.10784673363914</v>
+        <v>299.824705061377</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1408,28 +1408,28 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>39.33548595260552</v>
+        <v>159.6284936496249</v>
       </c>
       <c r="C37">
-        <v>0.0865987647239177</v>
+        <v>0.3896944412576296</v>
       </c>
       <c r="D37">
-        <v>3.357985621165661</v>
+        <v>15.10138451657063</v>
       </c>
       <c r="E37">
-        <v>5.061327062789545</v>
+        <v>22.77597178255295</v>
       </c>
       <c r="F37">
-        <v>0.8985567742228306</v>
+        <v>4.030020364951777</v>
       </c>
       <c r="G37">
-        <v>5.904543360535486</v>
+        <v>26.56556969294832</v>
       </c>
       <c r="H37">
-        <v>0.3942112030262843</v>
+        <v>1.773950413618279</v>
       </c>
       <c r="I37">
-        <v>55.03870873906925</v>
+        <v>230.2650848615245</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1437,25 +1437,25 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>20.27602368691007</v>
+        <v>82.28272868537367</v>
       </c>
       <c r="C38">
-        <v>0.0865987647239177</v>
+        <v>0.3896944412576296</v>
       </c>
       <c r="D38">
-        <v>1.526357100529846</v>
+        <v>6.864265689350288</v>
       </c>
       <c r="E38">
-        <v>3.585106669475927</v>
+        <v>16.13298001264167</v>
       </c>
       <c r="F38">
-        <v>0.3931185887224882</v>
+        <v>1.763133909666402</v>
       </c>
       <c r="G38">
-        <v>2.952271680267743</v>
+        <v>13.28278484647416</v>
       </c>
       <c r="I38">
-        <v>28.81947649062998</v>
+        <v>120.7155875847638</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1463,25 +1463,25 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>17.5387604891772</v>
+        <v>71.17456031284816</v>
       </c>
       <c r="C39">
-        <v>0.4762932059815473</v>
+        <v>2.143319426916963</v>
       </c>
       <c r="D39">
-        <v>2.747442780953723</v>
+        <v>12.35567824083052</v>
       </c>
       <c r="E39">
-        <v>0.8435545104649241</v>
+        <v>3.795995297092157</v>
       </c>
       <c r="F39">
-        <v>0.6177577822781958</v>
+        <v>2.770639000904346</v>
       </c>
       <c r="G39">
-        <v>2.361817344214195</v>
+        <v>10.62622787717934</v>
       </c>
       <c r="I39">
-        <v>24.58562611306979</v>
+        <v>102.8664201557715</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1489,19 +1489,19 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>13.4835557517952</v>
+        <v>54.71801457577349</v>
       </c>
       <c r="C40">
-        <v>0.4762932059815473</v>
+        <v>2.143319426916963</v>
       </c>
       <c r="F40">
-        <v>0.4773582863058787</v>
+        <v>2.14094831888063</v>
       </c>
       <c r="G40">
-        <v>4.133180352374842</v>
+        <v>18.59589878506383</v>
       </c>
       <c r="I40">
-        <v>18.57038759645746</v>
+        <v>77.59818110663491</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1509,22 +1509,22 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>8.313169711633126</v>
+        <v>33.73591876100318</v>
       </c>
       <c r="C41">
-        <v>0.04329938236195885</v>
+        <v>0.1948472206288148</v>
       </c>
       <c r="D41">
-        <v>0.9158142603179072</v>
+        <v>4.118559413610172</v>
       </c>
       <c r="F41">
-        <v>0.252719092750171</v>
+        <v>1.133443227642687</v>
       </c>
       <c r="G41">
-        <v>1.771363008160646</v>
+        <v>7.969670907884498</v>
       </c>
       <c r="I41">
-        <v>11.29636545522381</v>
+        <v>47.15243953076936</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1532,22 +1532,22 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>7.096608290418523</v>
+        <v>28.79895503988077</v>
       </c>
       <c r="C42">
-        <v>0.04329938236195885</v>
+        <v>0.1948472206288148</v>
       </c>
       <c r="D42">
-        <v>0.6105428402119384</v>
+        <v>2.745706275740115</v>
       </c>
       <c r="F42">
-        <v>0.1403994959723173</v>
+        <v>0.6296906820237147</v>
       </c>
       <c r="G42">
-        <v>2.361817344214195</v>
+        <v>10.62622787717934</v>
       </c>
       <c r="I42">
-        <v>10.25266735317893</v>
+        <v>42.99542709545275</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1555,25 +1555,25 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>5.170386040162068</v>
+        <v>20.98209581477028</v>
       </c>
       <c r="C43">
-        <v>0.1298981470858765</v>
+        <v>0.5845416618864444</v>
       </c>
       <c r="D43">
-        <v>0.6105428402119384</v>
+        <v>2.745706275740115</v>
       </c>
       <c r="E43">
-        <v>0.4217772552324621</v>
+        <v>1.897997648546079</v>
       </c>
       <c r="F43">
-        <v>0.252719092750171</v>
+        <v>1.133443227642687</v>
       </c>
       <c r="G43">
-        <v>3.542726016321291</v>
+        <v>15.939341815769</v>
       </c>
       <c r="I43">
-        <v>10.12804939176381</v>
+        <v>43.28312644435459</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1581,19 +1581,19 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>9.225590777544081</v>
+        <v>37.438641551845</v>
       </c>
       <c r="C44">
-        <v>0.0865987647239177</v>
+        <v>0.3896944412576296</v>
       </c>
       <c r="F44">
-        <v>0.3369587903335614</v>
+        <v>1.511257636856916</v>
       </c>
       <c r="G44">
-        <v>6.494997696589037</v>
+        <v>29.22212666224316</v>
       </c>
       <c r="I44">
-        <v>16.1441460291906</v>
+        <v>68.56172029220271</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1601,28 +1601,28 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>31.6305969515797</v>
+        <v>128.3610567491829</v>
       </c>
       <c r="C45">
-        <v>0.1298981470858765</v>
+        <v>0.5845416618864444</v>
       </c>
       <c r="D45">
-        <v>3.663257041271629</v>
+        <v>16.47423765444069</v>
       </c>
       <c r="E45">
-        <v>1.054443138081155</v>
+        <v>4.744994121365197</v>
       </c>
       <c r="F45">
-        <v>1.403994959723172</v>
+        <v>6.296906820237147</v>
       </c>
       <c r="G45">
-        <v>5.314089024481941</v>
+        <v>23.9090127236535</v>
       </c>
       <c r="H45">
-        <v>0.7884224060525685</v>
+        <v>3.547900827236558</v>
       </c>
       <c r="I45">
-        <v>43.98470166827604</v>
+        <v>183.9186505580024</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1630,28 +1630,28 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>55.55630490213359</v>
+        <v>225.4546765979238</v>
       </c>
       <c r="C46">
-        <v>0.04329938236195885</v>
+        <v>0.1948472206288148</v>
       </c>
       <c r="D46">
-        <v>5.800156982013412</v>
+        <v>26.08420961953109</v>
       </c>
       <c r="E46">
-        <v>7.381101966568083</v>
+        <v>33.21495884955637</v>
       </c>
       <c r="F46">
-        <v>1.881353246029051</v>
+        <v>8.437855139117783</v>
       </c>
       <c r="G46">
-        <v>24.2086277781955</v>
+        <v>108.9188357410882</v>
       </c>
       <c r="H46">
-        <v>0.1971056015131421</v>
+        <v>0.8869752068091395</v>
       </c>
       <c r="I46">
-        <v>95.06794985881474</v>
+        <v>403.1923583746552</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1659,28 +1659,28 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>70.76332266731616</v>
+        <v>287.1667231119539</v>
       </c>
       <c r="C47">
-        <v>0.1298981470858765</v>
+        <v>0.5845416618864444</v>
       </c>
       <c r="D47">
-        <v>5.189614141801474</v>
+        <v>23.33850334379098</v>
       </c>
       <c r="E47">
-        <v>6.32665882848693</v>
+        <v>28.46996472819119</v>
       </c>
       <c r="F47">
-        <v>0.982796471806221</v>
+        <v>4.407834774166004</v>
       </c>
       <c r="G47">
-        <v>10.62817804896388</v>
+        <v>47.81802544730701</v>
       </c>
       <c r="H47">
-        <v>0.1971056015131421</v>
+        <v>0.8869752068091395</v>
       </c>
       <c r="I47">
-        <v>94.2175739069737</v>
+        <v>392.6725682741047</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1688,28 +1688,28 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>64.6805155612431</v>
+        <v>262.4819045063418</v>
       </c>
       <c r="C48">
-        <v>0.7360895001533004</v>
+        <v>3.312402750689852</v>
       </c>
       <c r="D48">
-        <v>8.242328342861168</v>
+        <v>37.06703472249155</v>
       </c>
       <c r="E48">
-        <v>6.537547456103161</v>
+        <v>29.41896355246422</v>
       </c>
       <c r="F48">
-        <v>1.572474354889953</v>
+        <v>7.052535638665609</v>
       </c>
       <c r="G48">
-        <v>15.35181273739227</v>
+        <v>69.07048120166564</v>
       </c>
       <c r="H48">
-        <v>0.7884224060525685</v>
+        <v>3.547900827236558</v>
       </c>
       <c r="I48">
-        <v>97.90919035869551</v>
+        <v>411.9512231995553</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1717,28 +1717,28 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>58.29356809986643</v>
+        <v>236.5628449704492</v>
       </c>
       <c r="C49">
-        <v>0.9525864119630946</v>
+        <v>4.286638853833925</v>
       </c>
       <c r="D49">
-        <v>5.800156982013412</v>
+        <v>26.08420961953109</v>
       </c>
       <c r="E49">
-        <v>9.700876870346626</v>
+        <v>43.6539459165598</v>
       </c>
       <c r="F49">
-        <v>2.723750221862954</v>
+        <v>12.21599923126007</v>
       </c>
       <c r="G49">
-        <v>17.12317574555292</v>
+        <v>77.04015210955016</v>
       </c>
       <c r="H49">
-        <v>1.773950413618279</v>
+        <v>7.982776861282256</v>
       </c>
       <c r="I49">
-        <v>96.36806474522372</v>
+        <v>407.8265675624664</v>
       </c>
     </row>
   </sheetData>
